--- a/_data/Class Exercise Data.xlsx
+++ b/_data/Class Exercise Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17123\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A042754-19F6-41A5-8116-D351FEA1942F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750161BC-6195-412F-B962-833FFE826A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Soil Moisture" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="16">
   <si>
     <t>Plot Number</t>
   </si>
@@ -83,63 +83,6 @@
   </si>
   <si>
     <t>Aggregate Stability</t>
-  </si>
-  <si>
-    <t>Simp. Treatment</t>
-  </si>
-  <si>
-    <t>Treatment Description</t>
-  </si>
-  <si>
-    <t>Short Trt Description</t>
-  </si>
-  <si>
-    <t>Corn/Soy, Spring Manure</t>
-  </si>
-  <si>
-    <t>CS, SM</t>
-  </si>
-  <si>
-    <t>Corn/Soy, Fall Manure</t>
-  </si>
-  <si>
-    <t>CS, FM</t>
-  </si>
-  <si>
-    <t>Corn/Soy, Spring UAN</t>
-  </si>
-  <si>
-    <t>CS, SUAN</t>
-  </si>
-  <si>
-    <t>Continuous Corn</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>Continuous Corn + PGC</t>
-  </si>
-  <si>
-    <t>CC + PGC</t>
-  </si>
-  <si>
-    <t>Continuous Corn + 30 in ISC</t>
-  </si>
-  <si>
-    <t>CC + 30ISC</t>
-  </si>
-  <si>
-    <t>Corn/Soy + Rye</t>
-  </si>
-  <si>
-    <t>CS + R</t>
-  </si>
-  <si>
-    <t>Continuous Corn + 60in ISC</t>
-  </si>
-  <si>
-    <t>CC + 60ISC</t>
   </si>
 </sst>
 </file>
@@ -555,8 +498,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H433"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H442" sqref="H442"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -585,15 +528,9 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
@@ -611,15 +548,6 @@
       <c r="E2" s="2">
         <v>5.072010018785237E-2</v>
       </c>
-      <c r="F2" s="15">
-        <v>2</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
@@ -637,15 +565,6 @@
       <c r="E3" s="2">
         <v>5.3264604810996589E-2</v>
       </c>
-      <c r="F3" s="15">
-        <v>6</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
@@ -663,15 +582,6 @@
       <c r="E4" s="2">
         <v>7.5589459084604543E-2</v>
       </c>
-      <c r="F4" s="15">
-        <v>1</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
@@ -689,15 +599,6 @@
       <c r="E5" s="2">
         <v>5.9353869271224463E-2</v>
       </c>
-      <c r="F5" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
@@ -715,15 +616,6 @@
       <c r="E6" s="2">
         <v>8.2544689800210236E-2</v>
       </c>
-      <c r="F6" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
@@ -741,15 +633,6 @@
       <c r="E7" s="2">
         <v>0.1060142711518859</v>
       </c>
-      <c r="F7" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
@@ -767,15 +650,6 @@
       <c r="E8" s="2">
         <v>8.2414016872161044E-2</v>
       </c>
-      <c r="F8" s="15">
-        <v>2</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
@@ -793,15 +667,6 @@
       <c r="E9" s="2">
         <v>0.12773722627737225</v>
       </c>
-      <c r="F9" s="15">
-        <v>5</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
@@ -819,15 +684,6 @@
       <c r="E10" s="2">
         <v>7.2584600294261808E-2</v>
       </c>
-      <c r="F10" s="15">
-        <v>5</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
@@ -844,15 +700,6 @@
       </c>
       <c r="E11" s="2">
         <v>9.9676375404530781E-2</v>
-      </c>
-      <c r="F11" s="15">
-        <v>1</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -871,15 +718,6 @@
       <c r="E12" s="2">
         <v>9.3205051112447382E-2</v>
       </c>
-      <c r="F12" s="15">
-        <v>2</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
@@ -897,15 +735,6 @@
       <c r="E13" s="2">
         <v>9.4370860927152272E-2</v>
       </c>
-      <c r="F13" s="15">
-        <v>5</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
@@ -923,15 +752,6 @@
       <c r="E14" s="2">
         <v>8.0741626794258378E-2</v>
       </c>
-      <c r="F14" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
@@ -949,15 +769,6 @@
       <c r="E15" s="2">
         <v>0.10073710073710058</v>
       </c>
-      <c r="F15" s="15">
-        <v>6</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
@@ -975,17 +786,8 @@
       <c r="E16" s="2">
         <v>5.3459119496855285E-2</v>
       </c>
-      <c r="F16" s="15">
-        <v>1</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1001,17 +803,8 @@
       <c r="E17" s="2">
         <v>6.0394151303242209E-2</v>
       </c>
-      <c r="F17" s="15">
-        <v>6</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1027,17 +820,8 @@
       <c r="E18" s="2">
         <v>7.2736269173676482E-2</v>
       </c>
-      <c r="F18" s="15">
-        <v>5</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1053,17 +837,8 @@
       <c r="E19" s="2">
         <v>8.3501006036217268E-2</v>
       </c>
-      <c r="F19" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1079,17 +854,8 @@
       <c r="E20" s="2">
         <v>0.12357846853677014</v>
       </c>
-      <c r="F20" s="15">
-        <v>5</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1105,17 +871,8 @@
       <c r="E21" s="2">
         <v>0.16403607666290865</v>
       </c>
-      <c r="F21" s="15">
-        <v>6</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1131,17 +888,8 @@
       <c r="E22" s="2">
         <v>9.4339622641509274E-2</v>
       </c>
-      <c r="F22" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1157,17 +905,8 @@
       <c r="E23" s="2">
         <v>0.11317747077577052</v>
       </c>
-      <c r="F23" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1183,17 +922,8 @@
       <c r="E24" s="2">
         <v>5.1630434782608592E-2</v>
       </c>
-      <c r="F24" s="15">
-        <v>2</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1209,17 +939,8 @@
       <c r="E25" s="2">
         <v>9.6876654314451999E-2</v>
       </c>
-      <c r="F25" s="15">
-        <v>1</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1235,17 +956,8 @@
       <c r="E26" s="2">
         <v>7.8413284132841321E-2</v>
       </c>
-      <c r="F26" s="15">
-        <v>6</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1261,17 +973,8 @@
       <c r="E27" s="2">
         <v>0.13281715306730185</v>
       </c>
-      <c r="F27" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1287,17 +990,8 @@
       <c r="E28" s="2">
         <v>3.1756756756756682E-2</v>
       </c>
-      <c r="F28" s="15">
-        <v>2</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1313,17 +1007,8 @@
       <c r="E29" s="2">
         <v>4.6167247386759556E-2</v>
       </c>
-      <c r="F29" s="15">
-        <v>1</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1339,17 +1024,8 @@
       <c r="E30" s="2">
         <v>0.11359404096834254</v>
       </c>
-      <c r="F30" s="15">
-        <v>1</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1365,17 +1041,8 @@
       <c r="E31" s="2">
         <v>6.5116279069767483E-2</v>
       </c>
-      <c r="F31" s="15">
-        <v>2</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1391,17 +1058,8 @@
       <c r="E32" s="2">
         <v>6.345332519829168E-2</v>
       </c>
-      <c r="F32" s="15">
-        <v>6</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1417,17 +1075,8 @@
       <c r="E33" s="2">
         <v>8.2044069385841537E-2</v>
       </c>
-      <c r="F33" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1443,17 +1092,8 @@
       <c r="E34" s="2">
         <v>7.4478178368121387E-2</v>
       </c>
-      <c r="F34" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1469,17 +1109,8 @@
       <c r="E35" s="2">
         <v>5.2439024390243866E-2</v>
       </c>
-      <c r="F35" s="15">
-        <v>5</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1495,17 +1126,8 @@
       <c r="E36" s="2">
         <v>6.8181818181818177E-2</v>
       </c>
-      <c r="F36" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1521,17 +1143,8 @@
       <c r="E37" s="2">
         <v>6.2399999999999942E-2</v>
       </c>
-      <c r="F37" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="9">
         <v>1</v>
       </c>
@@ -1547,17 +1160,8 @@
       <c r="E38" s="2">
         <v>0.22282120395327926</v>
       </c>
-      <c r="F38" s="15">
-        <v>2</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="9">
         <v>2</v>
       </c>
@@ -1573,17 +1177,8 @@
       <c r="E39" s="2">
         <v>0.25190065889508373</v>
       </c>
-      <c r="F39" s="15">
-        <v>6</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="9">
         <v>3</v>
       </c>
@@ -1599,17 +1194,8 @@
       <c r="E40" s="2">
         <v>0.22908251586843636</v>
       </c>
-      <c r="F40" s="15">
-        <v>1</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="9">
         <v>4</v>
       </c>
@@ -1625,17 +1211,8 @@
       <c r="E41" s="2">
         <v>0.26357969723953706</v>
       </c>
-      <c r="F41" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="9">
         <v>5</v>
       </c>
@@ -1651,17 +1228,8 @@
       <c r="E42" s="2">
         <v>0.2567685589519651</v>
       </c>
-      <c r="F42" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="9">
         <v>6</v>
       </c>
@@ -1677,17 +1245,8 @@
       <c r="E43" s="2">
         <v>0.29742612011439451</v>
       </c>
-      <c r="F43" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="9">
         <v>7</v>
       </c>
@@ -1703,17 +1262,8 @@
       <c r="E44" s="2">
         <v>0.22157434402332363</v>
       </c>
-      <c r="F44" s="15">
-        <v>2</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="9">
         <v>8</v>
       </c>
@@ -1729,17 +1279,8 @@
       <c r="E45" s="2">
         <v>0.25515151515151513</v>
       </c>
-      <c r="F45" s="15">
-        <v>5</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="9">
         <v>9</v>
       </c>
@@ -1755,17 +1296,8 @@
       <c r="E46" s="2">
         <v>0.23015873015873015</v>
       </c>
-      <c r="F46" s="15">
-        <v>5</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" s="9">
         <v>10</v>
       </c>
@@ -1781,17 +1313,8 @@
       <c r="E47" s="2">
         <v>0.2510254306808859</v>
       </c>
-      <c r="F47" s="15">
-        <v>1</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="9">
         <v>11</v>
       </c>
@@ -1807,17 +1330,8 @@
       <c r="E48" s="2">
         <v>0.24773413897280952</v>
       </c>
-      <c r="F48" s="15">
-        <v>2</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="9">
         <v>12</v>
       </c>
@@ -1833,17 +1347,8 @@
       <c r="E49" s="2">
         <v>0.27324171382376727</v>
       </c>
-      <c r="F49" s="15">
-        <v>5</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="9">
         <v>13</v>
       </c>
@@ -1859,17 +1364,8 @@
       <c r="E50" s="2">
         <v>0.23679867986798681</v>
       </c>
-      <c r="F50" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="9">
         <v>14</v>
       </c>
@@ -1885,17 +1381,8 @@
       <c r="E51" s="2">
         <v>0.24763193504736125</v>
       </c>
-      <c r="F51" s="15">
-        <v>6</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="9">
         <v>15</v>
       </c>
@@ -1911,17 +1398,8 @@
       <c r="E52" s="2">
         <v>0.25096525096525096</v>
       </c>
-      <c r="F52" s="15">
-        <v>1</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="9">
         <v>16</v>
       </c>
@@ -1937,17 +1415,8 @@
       <c r="E53" s="2">
         <v>0.33691756272401413</v>
       </c>
-      <c r="F53" s="15">
-        <v>6</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H53" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="9">
         <v>17</v>
       </c>
@@ -1963,17 +1432,8 @@
       <c r="E54" s="2">
         <v>0.27925531914893631</v>
       </c>
-      <c r="F54" s="15">
-        <v>5</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="9">
         <v>18</v>
       </c>
@@ -1989,17 +1449,8 @@
       <c r="E55" s="2">
         <v>0.22809364548494979</v>
       </c>
-      <c r="F55" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H55" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="9">
         <v>19</v>
       </c>
@@ -2015,17 +1466,8 @@
       <c r="E56" s="2">
         <v>0.28800917957544453</v>
       </c>
-      <c r="F56" s="15">
-        <v>5</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H56" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="9">
         <v>20</v>
       </c>
@@ -2041,17 +1483,8 @@
       <c r="E57" s="2">
         <v>0.33874538745387456</v>
       </c>
-      <c r="F57" s="15">
-        <v>6</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H57" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="9">
         <v>21</v>
       </c>
@@ -2067,17 +1500,8 @@
       <c r="E58" s="2">
         <v>0.2886142983230362</v>
       </c>
-      <c r="F58" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H58" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="9">
         <v>22</v>
       </c>
@@ -2093,17 +1517,8 @@
       <c r="E59" s="2">
         <v>0.2489217498459641</v>
       </c>
-      <c r="F59" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H59" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" s="9">
         <v>23</v>
       </c>
@@ -2119,17 +1534,8 @@
       <c r="E60" s="2">
         <v>0.24113475177304963</v>
       </c>
-      <c r="F60" s="15">
-        <v>2</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H60" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="9">
         <v>24</v>
       </c>
@@ -2145,17 +1551,8 @@
       <c r="E61" s="2">
         <v>0.23987538940809955</v>
       </c>
-      <c r="F61" s="15">
-        <v>1</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H61" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="9">
         <v>25</v>
       </c>
@@ -2171,17 +1568,8 @@
       <c r="E62" s="2">
         <v>0.24963715529753247</v>
       </c>
-      <c r="F62" s="15">
-        <v>6</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H62" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="9">
         <v>26</v>
       </c>
@@ -2197,17 +1585,8 @@
       <c r="E63" s="2">
         <v>0.22965879265091863</v>
       </c>
-      <c r="F63" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H63" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="9">
         <v>27</v>
       </c>
@@ -2223,17 +1602,8 @@
       <c r="E64" s="2">
         <v>0.24070021881838091</v>
       </c>
-      <c r="F64" s="15">
-        <v>2</v>
-      </c>
-      <c r="G64" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H64" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" s="9">
         <v>28</v>
       </c>
@@ -2249,17 +1619,8 @@
       <c r="E65" s="2">
         <v>0.20962199312714777</v>
       </c>
-      <c r="F65" s="15">
-        <v>1</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H65" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" s="9">
         <v>29</v>
       </c>
@@ -2275,17 +1636,8 @@
       <c r="E66" s="2">
         <v>0.28092243186582821</v>
       </c>
-      <c r="F66" s="15">
-        <v>1</v>
-      </c>
-      <c r="G66" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H66" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" s="9">
         <v>30</v>
       </c>
@@ -2301,17 +1653,8 @@
       <c r="E67" s="2">
         <v>0.25801230171576556</v>
       </c>
-      <c r="F67" s="15">
-        <v>2</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H67" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" s="9">
         <v>31</v>
       </c>
@@ -2327,17 +1670,8 @@
       <c r="E68" s="2">
         <v>0.2797012898845892</v>
       </c>
-      <c r="F68" s="15">
-        <v>6</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H68" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" s="9">
         <v>32</v>
       </c>
@@ -2353,17 +1687,8 @@
       <c r="E69" s="2">
         <v>0.26738491674828596</v>
       </c>
-      <c r="F69" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H69" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" s="9">
         <v>33</v>
       </c>
@@ -2379,17 +1704,8 @@
       <c r="E70" s="2">
         <v>0.24775143090760424</v>
       </c>
-      <c r="F70" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H70" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" s="9">
         <v>34</v>
       </c>
@@ -2405,17 +1721,8 @@
       <c r="E71" s="2">
         <v>0.24674267100977182</v>
       </c>
-      <c r="F71" s="15">
-        <v>5</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H71" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" s="9">
         <v>35</v>
       </c>
@@ -2431,17 +1738,8 @@
       <c r="E72" s="2">
         <v>0.29694323144104817</v>
       </c>
-      <c r="F72" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="G72" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H72" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" s="9">
         <v>36</v>
       </c>
@@ -2457,17 +1755,8 @@
       <c r="E73" s="2">
         <v>0.39320388349514562</v>
       </c>
-      <c r="F73" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="G73" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H73" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" s="9">
         <v>1</v>
       </c>
@@ -2483,17 +1772,8 @@
       <c r="E74" s="2">
         <v>7.4363992172211194E-2</v>
       </c>
-      <c r="F74" s="15">
-        <v>2</v>
-      </c>
-      <c r="G74" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" s="9">
         <v>2</v>
       </c>
@@ -2509,17 +1789,8 @@
       <c r="E75" s="2">
         <v>8.2859848484848342E-2</v>
       </c>
-      <c r="F75" s="15">
-        <v>6</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H75" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" s="9">
         <v>3</v>
       </c>
@@ -2535,17 +1806,8 @@
       <c r="E76" s="2">
         <v>0.10206240084611323</v>
       </c>
-      <c r="F76" s="15">
-        <v>1</v>
-      </c>
-      <c r="G76" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H76" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" s="9">
         <v>4</v>
       </c>
@@ -2561,17 +1823,8 @@
       <c r="E77" s="2">
         <v>8.374142997061701E-2</v>
       </c>
-      <c r="F77" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G77" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H77" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" s="9">
         <v>5</v>
       </c>
@@ -2587,17 +1840,8 @@
       <c r="E78" s="2">
         <v>5.3459119496855237E-2</v>
       </c>
-      <c r="F78" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G78" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H78" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79" s="9">
         <v>6</v>
       </c>
@@ -2613,17 +1857,8 @@
       <c r="E79" s="2">
         <v>0.1526054590570719</v>
       </c>
-      <c r="F79" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="G79" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H79" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" s="9">
         <v>7</v>
       </c>
@@ -2639,17 +1874,8 @@
       <c r="E80" s="2">
         <v>4.6104928457869572E-2</v>
       </c>
-      <c r="F80" s="15">
-        <v>2</v>
-      </c>
-      <c r="G80" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H80" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" s="9">
         <v>8</v>
       </c>
@@ -2665,17 +1891,8 @@
       <c r="E81" s="2">
         <v>0.1023952095808383</v>
       </c>
-      <c r="F81" s="15">
-        <v>5</v>
-      </c>
-      <c r="G81" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H81" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" s="9">
         <v>9</v>
       </c>
@@ -2691,17 +1908,8 @@
       <c r="E82" s="2">
         <v>8.1512108682811474E-2</v>
       </c>
-      <c r="F82" s="15">
-        <v>5</v>
-      </c>
-      <c r="G82" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H82" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" s="9">
         <v>10</v>
       </c>
@@ -2717,17 +1925,8 @@
       <c r="E83" s="2">
         <v>6.5261044176706681E-2</v>
       </c>
-      <c r="F83" s="15">
-        <v>1</v>
-      </c>
-      <c r="G83" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H83" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" s="9">
         <v>11</v>
       </c>
@@ -2743,17 +1942,8 @@
       <c r="E84" s="2">
         <v>2.8970512157268462E-2</v>
       </c>
-      <c r="F84" s="15">
-        <v>2</v>
-      </c>
-      <c r="G84" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H84" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" s="9">
         <v>12</v>
       </c>
@@ -2769,17 +1959,8 @@
       <c r="E85" s="2">
         <v>4.8290830168203888E-2</v>
       </c>
-      <c r="F85" s="15">
-        <v>5</v>
-      </c>
-      <c r="G85" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H85" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86" s="9">
         <v>13</v>
       </c>
@@ -2795,17 +1976,8 @@
       <c r="E86" s="2">
         <v>0.13697788697788688</v>
       </c>
-      <c r="F86" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="G86" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H86" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87" s="9">
         <v>14</v>
       </c>
@@ -2821,17 +1993,8 @@
       <c r="E87" s="2">
         <v>6.3437139561707032E-2</v>
       </c>
-      <c r="F87" s="15">
-        <v>6</v>
-      </c>
-      <c r="G87" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H87" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88" s="9">
         <v>15</v>
       </c>
@@ -2847,17 +2010,8 @@
       <c r="E88" s="2">
         <v>4.1831543244771091E-2</v>
       </c>
-      <c r="F88" s="15">
-        <v>1</v>
-      </c>
-      <c r="G88" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H88" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89" s="9">
         <v>16</v>
       </c>
@@ -2873,17 +2027,8 @@
       <c r="E89" s="2">
         <v>6.2278481012658288E-2</v>
       </c>
-      <c r="F89" s="15">
-        <v>6</v>
-      </c>
-      <c r="G89" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H89" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90" s="9">
         <v>17</v>
       </c>
@@ -2899,17 +2044,8 @@
       <c r="E90" s="2">
         <v>7.6144834930777325E-2</v>
       </c>
-      <c r="F90" s="15">
-        <v>5</v>
-      </c>
-      <c r="G90" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H90" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91" s="9">
         <v>18</v>
       </c>
@@ -2925,17 +2061,8 @@
       <c r="E91" s="2">
         <v>2.9828109201213229E-2</v>
       </c>
-      <c r="F91" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G91" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H91" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92" s="9">
         <v>19</v>
       </c>
@@ -2951,17 +2078,8 @@
       <c r="E92" s="2">
         <v>5.5086848635235705E-2</v>
       </c>
-      <c r="F92" s="15">
-        <v>5</v>
-      </c>
-      <c r="G92" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H92" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93" s="9">
         <v>20</v>
       </c>
@@ -2977,17 +2095,8 @@
       <c r="E93" s="2">
         <v>3.3351558228540155E-2</v>
       </c>
-      <c r="F93" s="15">
-        <v>6</v>
-      </c>
-      <c r="G93" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H93" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94" s="9">
         <v>21</v>
       </c>
@@ -3003,17 +2112,8 @@
       <c r="E94" s="2">
         <v>3.1036623215394167E-2</v>
       </c>
-      <c r="F94" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G94" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H94" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95" s="9">
         <v>22</v>
       </c>
@@ -3029,17 +2129,8 @@
       <c r="E95" s="2">
         <v>5.7206208425720648E-2</v>
       </c>
-      <c r="F95" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="G95" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H95" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96" s="9">
         <v>23</v>
       </c>
@@ -3055,17 +2146,8 @@
       <c r="E96" s="2">
         <v>2.2314478463933637E-2</v>
       </c>
-      <c r="F96" s="15">
-        <v>2</v>
-      </c>
-      <c r="G96" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H96" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97" s="9">
         <v>24</v>
       </c>
@@ -3081,17 +2163,8 @@
       <c r="E97" s="2">
         <v>3.0839520274128934E-2</v>
       </c>
-      <c r="F97" s="15">
-        <v>1</v>
-      </c>
-      <c r="G97" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H97" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98" s="9">
         <v>25</v>
       </c>
@@ -3107,17 +2180,8 @@
       <c r="E98" s="2">
         <v>2.8961748633879843E-2</v>
       </c>
-      <c r="F98" s="15">
-        <v>6</v>
-      </c>
-      <c r="G98" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H98" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99" s="9">
         <v>26</v>
       </c>
@@ -3133,17 +2197,8 @@
       <c r="E99" s="2">
         <v>3.2036613272311214E-2</v>
       </c>
-      <c r="F99" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G99" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H99" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100" s="9">
         <v>27</v>
       </c>
@@ -3159,17 +2214,8 @@
       <c r="E100" s="2">
         <v>3.7086092715231812E-2</v>
       </c>
-      <c r="F100" s="15">
-        <v>2</v>
-      </c>
-      <c r="G100" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H100" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101" s="9">
         <v>28</v>
       </c>
@@ -3185,17 +2231,8 @@
       <c r="E101" s="2">
         <v>2.5401069518716526E-2</v>
       </c>
-      <c r="F101" s="15">
-        <v>1</v>
-      </c>
-      <c r="G101" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H101" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102" s="9">
         <v>29</v>
       </c>
@@ -3211,17 +2248,8 @@
       <c r="E102" s="2">
         <v>6.6463414634146373E-2</v>
       </c>
-      <c r="F102" s="15">
-        <v>1</v>
-      </c>
-      <c r="G102" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H102" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103" s="9">
         <v>30</v>
       </c>
@@ -3237,17 +2265,8 @@
       <c r="E103" s="2">
         <v>9.1847265221878138E-2</v>
       </c>
-      <c r="F103" s="15">
-        <v>2</v>
-      </c>
-      <c r="G103" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H103" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104" s="9">
         <v>31</v>
       </c>
@@ -3263,17 +2282,8 @@
       <c r="E104" s="2">
         <v>4.5280960174577098E-2</v>
       </c>
-      <c r="F104" s="15">
-        <v>6</v>
-      </c>
-      <c r="G104" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H104" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105" s="9">
         <v>32</v>
       </c>
@@ -3289,17 +2299,8 @@
       <c r="E105" s="2">
         <v>6.9275753486279693E-2</v>
       </c>
-      <c r="F105" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="G105" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H105" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A106" s="9">
         <v>33</v>
       </c>
@@ -3315,17 +2316,8 @@
       <c r="E106" s="2">
         <v>4.7026279391424564E-2</v>
       </c>
-      <c r="F106" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G106" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H106" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107" s="9">
         <v>34</v>
       </c>
@@ -3341,17 +2333,8 @@
       <c r="E107" s="2">
         <v>3.1872509960159327E-2</v>
       </c>
-      <c r="F107" s="15">
-        <v>5</v>
-      </c>
-      <c r="G107" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H107" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108" s="9">
         <v>35</v>
       </c>
@@ -3367,17 +2350,8 @@
       <c r="E108" s="2">
         <v>6.6809192944949233E-2</v>
       </c>
-      <c r="F108" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="G108" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H108" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109" s="9">
         <v>36</v>
       </c>
@@ -3393,17 +2367,8 @@
       <c r="E109" s="2">
         <v>3.7359263050153441E-2</v>
       </c>
-      <c r="F109" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="G109" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H109" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A110" s="9">
         <v>1</v>
       </c>
@@ -3419,17 +2384,8 @@
       <c r="E110" s="2">
         <v>7.9668027690309409E-2</v>
       </c>
-      <c r="F110" s="15">
-        <v>2</v>
-      </c>
-      <c r="G110" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H110" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A111" s="9">
         <v>2</v>
       </c>
@@ -3445,17 +2401,8 @@
       <c r="E111" s="2">
         <v>8.9937666963490731E-2</v>
       </c>
-      <c r="F111" s="15">
-        <v>6</v>
-      </c>
-      <c r="G111" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H111" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A112" s="9">
         <v>3</v>
       </c>
@@ -3471,17 +2418,8 @@
       <c r="E112" s="2">
         <v>5.0759013282732392E-2</v>
       </c>
-      <c r="F112" s="15">
-        <v>1</v>
-      </c>
-      <c r="G112" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H112" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113" s="9">
         <v>4</v>
       </c>
@@ -3497,17 +2435,8 @@
       <c r="E113" s="2">
         <v>6.467223933128019E-2</v>
       </c>
-      <c r="F113" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G113" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H113" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114" s="9">
         <v>5</v>
       </c>
@@ -3523,17 +2452,8 @@
       <c r="E114" s="2">
         <v>4.7835990888382723E-2</v>
       </c>
-      <c r="F114" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G114" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H114" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115" s="9">
         <v>6</v>
       </c>
@@ -3549,17 +2469,8 @@
       <c r="E115" s="2">
         <v>7.7034108600163825E-2</v>
       </c>
-      <c r="F115" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="G115" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H115" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116" s="9">
         <v>7</v>
       </c>
@@ -3575,17 +2486,8 @@
       <c r="E116" s="2">
         <v>7.6070385715238636E-2</v>
       </c>
-      <c r="F116" s="15">
-        <v>2</v>
-      </c>
-      <c r="G116" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H116" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117" s="9">
         <v>8</v>
       </c>
@@ -3601,17 +2503,8 @@
       <c r="E117" s="2">
         <v>0.12008666311553719</v>
       </c>
-      <c r="F117" s="15">
-        <v>5</v>
-      </c>
-      <c r="G117" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H117" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118" s="9">
         <v>9</v>
       </c>
@@ -3627,17 +2520,8 @@
       <c r="E118" s="2">
         <v>7.3918002462214846E-2</v>
       </c>
-      <c r="F118" s="15">
-        <v>5</v>
-      </c>
-      <c r="G118" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H118" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119" s="9">
         <v>10</v>
       </c>
@@ -3653,17 +2537,8 @@
       <c r="E119" s="2">
         <v>7.3428178063331795E-2</v>
       </c>
-      <c r="F119" s="15">
-        <v>1</v>
-      </c>
-      <c r="G119" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H119" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120" s="9">
         <v>11</v>
       </c>
@@ -3679,17 +2554,8 @@
       <c r="E120" s="2">
         <v>9.4548551959114088E-2</v>
       </c>
-      <c r="F120" s="15">
-        <v>2</v>
-      </c>
-      <c r="G120" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H120" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121" s="9">
         <v>12</v>
       </c>
@@ -3705,17 +2571,8 @@
       <c r="E121" s="2">
         <v>6.7472306143000885E-2</v>
       </c>
-      <c r="F121" s="15">
-        <v>5</v>
-      </c>
-      <c r="G121" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H121" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122" s="9">
         <v>13</v>
       </c>
@@ -3731,17 +2588,8 @@
       <c r="E122" s="2">
         <v>0.10019550342130988</v>
       </c>
-      <c r="F122" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="G122" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H122" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123" s="9">
         <v>14</v>
       </c>
@@ -3757,17 +2605,8 @@
       <c r="E123" s="2">
         <v>8.6795725661783785E-2</v>
       </c>
-      <c r="F123" s="15">
-        <v>6</v>
-      </c>
-      <c r="G123" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H123" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124" s="9">
         <v>15</v>
       </c>
@@ -3783,17 +2622,8 @@
       <c r="E124" s="2">
         <v>9.3936806148590818E-2</v>
       </c>
-      <c r="F124" s="15">
-        <v>1</v>
-      </c>
-      <c r="G124" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H124" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125" s="9">
         <v>16</v>
       </c>
@@ -3809,17 +2639,8 @@
       <c r="E125" s="2">
         <v>8.916083080125578E-2</v>
       </c>
-      <c r="F125" s="15">
-        <v>6</v>
-      </c>
-      <c r="G125" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H125" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126" s="9">
         <v>17</v>
       </c>
@@ -3835,17 +2656,8 @@
       <c r="E126" s="2">
         <v>0.1018658598083711</v>
       </c>
-      <c r="F126" s="15">
-        <v>5</v>
-      </c>
-      <c r="G126" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H126" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127" s="9">
         <v>18</v>
       </c>
@@ -3861,17 +2673,8 @@
       <c r="E127" s="2">
         <v>0.11309220580743753</v>
       </c>
-      <c r="F127" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G127" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H127" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128" s="9">
         <v>19</v>
       </c>
@@ -3887,17 +2690,8 @@
       <c r="E128" s="2">
         <v>8.4575260804768945E-2</v>
       </c>
-      <c r="F128" s="15">
-        <v>5</v>
-      </c>
-      <c r="G128" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H128" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129" s="9">
         <v>20</v>
       </c>
@@ -3913,17 +2707,8 @@
       <c r="E129" s="2">
         <v>9.2215013901760776E-2</v>
       </c>
-      <c r="F129" s="15">
-        <v>6</v>
-      </c>
-      <c r="G129" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H129" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130" s="9">
         <v>21</v>
       </c>
@@ -3939,17 +2724,8 @@
       <c r="E130" s="2">
         <v>7.0870244919228734E-2</v>
       </c>
-      <c r="F130" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G130" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H130" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131" s="9">
         <v>22</v>
       </c>
@@ -3965,17 +2741,8 @@
       <c r="E131" s="2">
         <v>8.5378323108384543E-2</v>
       </c>
-      <c r="F131" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="G131" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H131" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132" s="9">
         <v>23</v>
       </c>
@@ -3991,17 +2758,8 @@
       <c r="E132" s="2">
         <v>9.1581342434584712E-2</v>
       </c>
-      <c r="F132" s="15">
-        <v>2</v>
-      </c>
-      <c r="G132" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H132" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133" s="9">
         <v>24</v>
       </c>
@@ -4017,17 +2775,8 @@
       <c r="E133" s="2">
         <v>8.5981308411214985E-2</v>
       </c>
-      <c r="F133" s="15">
-        <v>1</v>
-      </c>
-      <c r="G133" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H133" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A134" s="9">
         <v>25</v>
       </c>
@@ -4043,17 +2792,8 @@
       <c r="E134" s="2">
         <v>7.9108635097492969E-2</v>
       </c>
-      <c r="F134" s="15">
-        <v>6</v>
-      </c>
-      <c r="G134" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H134" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A135" s="9">
         <v>26</v>
       </c>
@@ -4069,17 +2809,8 @@
       <c r="E135" s="2">
         <v>8.8419851682829426E-2</v>
       </c>
-      <c r="F135" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G135" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H135" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A136" s="9">
         <v>27</v>
       </c>
@@ -4095,17 +2826,8 @@
       <c r="E136" s="2">
         <v>9.9220779220779196E-2</v>
       </c>
-      <c r="F136" s="15">
-        <v>2</v>
-      </c>
-      <c r="G136" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H136" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137" s="9">
         <v>28</v>
       </c>
@@ -4121,17 +2843,8 @@
       <c r="E137" s="2">
         <v>6.2468765617191405E-2</v>
       </c>
-      <c r="F137" s="15">
-        <v>1</v>
-      </c>
-      <c r="G137" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H137" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138" s="9">
         <v>29</v>
       </c>
@@ -4147,17 +2860,8 @@
       <c r="E138" s="2">
         <v>5.4897739504843855E-2</v>
       </c>
-      <c r="F138" s="15">
-        <v>1</v>
-      </c>
-      <c r="G138" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H138" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139" s="9">
         <v>30</v>
       </c>
@@ -4173,17 +2877,8 @@
       <c r="E139" s="2">
         <v>5.9665871121718374E-2</v>
       </c>
-      <c r="F139" s="15">
-        <v>2</v>
-      </c>
-      <c r="G139" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H139" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140" s="9">
         <v>31</v>
       </c>
@@ -4199,17 +2894,8 @@
       <c r="E140" s="2">
         <v>6.9358669833729195E-2</v>
       </c>
-      <c r="F140" s="15">
-        <v>6</v>
-      </c>
-      <c r="G140" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H140" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A141" s="9">
         <v>32</v>
       </c>
@@ -4225,17 +2911,8 @@
       <c r="E141" s="2">
         <v>5.4252873563218444E-2</v>
       </c>
-      <c r="F141" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="G141" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H141" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A142" s="9">
         <v>33</v>
       </c>
@@ -4251,17 +2928,8 @@
       <c r="E142" s="2">
         <v>9.9892588614393082E-2</v>
       </c>
-      <c r="F142" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G142" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H142" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143" s="9">
         <v>34</v>
       </c>
@@ -4277,17 +2945,8 @@
       <c r="E143" s="2">
         <v>4.3436293436293294E-2</v>
       </c>
-      <c r="F143" s="15">
-        <v>5</v>
-      </c>
-      <c r="G143" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H143" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A144" s="9">
         <v>35</v>
       </c>
@@ -4303,17 +2962,8 @@
       <c r="E144" s="2">
         <v>8.0151070079731282E-2</v>
       </c>
-      <c r="F144" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="G144" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H144" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A145" s="9">
         <v>36</v>
       </c>
@@ -4329,17 +2979,8 @@
       <c r="E145" s="2">
         <v>8.9108910891089105E-2</v>
       </c>
-      <c r="F145" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="G145" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H145" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A146" s="9">
         <v>1</v>
       </c>
@@ -4355,17 +2996,8 @@
       <c r="E146" s="3">
         <v>0.21990000000000001</v>
       </c>
-      <c r="F146" s="15">
-        <v>2</v>
-      </c>
-      <c r="G146" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H146" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A147" s="9">
         <v>2</v>
       </c>
@@ -4381,17 +3013,8 @@
       <c r="E147" s="3">
         <v>0.22739999999999999</v>
       </c>
-      <c r="F147" s="15">
-        <v>6</v>
-      </c>
-      <c r="G147" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H147" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148" s="9">
         <v>3</v>
       </c>
@@ -4407,17 +3030,8 @@
       <c r="E148" s="3">
         <v>0.12570000000000001</v>
       </c>
-      <c r="F148" s="15">
-        <v>1</v>
-      </c>
-      <c r="G148" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H148" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A149" s="9">
         <v>4</v>
       </c>
@@ -4433,17 +3047,8 @@
       <c r="E149" s="3">
         <v>0.11360000000000001</v>
       </c>
-      <c r="F149" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G149" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H149" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150" s="9">
         <v>5</v>
       </c>
@@ -4459,17 +3064,8 @@
       <c r="E150" s="3">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="F150" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G150" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H150" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A151" s="9">
         <v>6</v>
       </c>
@@ -4485,17 +3081,8 @@
       <c r="E151" s="3">
         <v>0.17560000000000001</v>
       </c>
-      <c r="F151" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="G151" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H151" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A152" s="9">
         <v>7</v>
       </c>
@@ -4511,17 +3098,8 @@
       <c r="E152" s="3">
         <v>0.182</v>
       </c>
-      <c r="F152" s="15">
-        <v>2</v>
-      </c>
-      <c r="G152" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H152" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153" s="9">
         <v>8</v>
       </c>
@@ -4537,17 +3115,8 @@
       <c r="E153" s="3">
         <v>0.22140000000000001</v>
       </c>
-      <c r="F153" s="15">
-        <v>5</v>
-      </c>
-      <c r="G153" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H153" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A154" s="9">
         <v>9</v>
       </c>
@@ -4563,17 +3132,8 @@
       <c r="E154" s="3">
         <v>0.20449999999999999</v>
       </c>
-      <c r="F154" s="15">
-        <v>5</v>
-      </c>
-      <c r="G154" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H154" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A155" s="9">
         <v>10</v>
       </c>
@@ -4589,17 +3149,8 @@
       <c r="E155" s="3">
         <v>0.2094</v>
       </c>
-      <c r="F155" s="15">
-        <v>1</v>
-      </c>
-      <c r="G155" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H155" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A156" s="9">
         <v>11</v>
       </c>
@@ -4615,17 +3166,8 @@
       <c r="E156" s="3">
         <v>0.1139</v>
       </c>
-      <c r="F156" s="15">
-        <v>2</v>
-      </c>
-      <c r="G156" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H156" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A157" s="9">
         <v>12</v>
       </c>
@@ -4641,17 +3183,8 @@
       <c r="E157" s="3">
         <v>0.1116</v>
       </c>
-      <c r="F157" s="15">
-        <v>5</v>
-      </c>
-      <c r="G157" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H157" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158" s="9">
         <v>13</v>
       </c>
@@ -4667,17 +3200,8 @@
       <c r="E158" s="3">
         <v>0.19320000000000001</v>
       </c>
-      <c r="F158" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="G158" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H158" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A159" s="9">
         <v>14</v>
       </c>
@@ -4693,17 +3217,8 @@
       <c r="E159" s="3">
         <v>0.1206</v>
       </c>
-      <c r="F159" s="15">
-        <v>6</v>
-      </c>
-      <c r="G159" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H159" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A160" s="9">
         <v>15</v>
       </c>
@@ -4719,17 +3234,8 @@
       <c r="E160" s="3">
         <v>0.20680000000000001</v>
       </c>
-      <c r="F160" s="15">
-        <v>1</v>
-      </c>
-      <c r="G160" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H160" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A161" s="9">
         <v>16</v>
       </c>
@@ -4745,17 +3251,8 @@
       <c r="E161" s="3">
         <v>0.20399999999999999</v>
       </c>
-      <c r="F161" s="15">
-        <v>6</v>
-      </c>
-      <c r="G161" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H161" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A162" s="9">
         <v>17</v>
       </c>
@@ -4771,17 +3268,8 @@
       <c r="E162" s="3">
         <v>0.1784</v>
       </c>
-      <c r="F162" s="15">
-        <v>5</v>
-      </c>
-      <c r="G162" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H162" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163" s="9">
         <v>18</v>
       </c>
@@ -4797,17 +3285,8 @@
       <c r="E163" s="3">
         <v>0.13489999999999999</v>
       </c>
-      <c r="F163" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G163" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H163" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A164" s="9">
         <v>19</v>
       </c>
@@ -4823,17 +3302,8 @@
       <c r="E164" s="3">
         <v>0.20669999999999999</v>
       </c>
-      <c r="F164" s="15">
-        <v>5</v>
-      </c>
-      <c r="G164" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H164" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165" s="9">
         <v>20</v>
       </c>
@@ -4849,17 +3319,8 @@
       <c r="E165" s="3">
         <v>0.2293</v>
       </c>
-      <c r="F165" s="15">
-        <v>6</v>
-      </c>
-      <c r="G165" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H165" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A166" s="9">
         <v>21</v>
       </c>
@@ -4875,17 +3336,8 @@
       <c r="E166" s="3">
         <v>0.17180000000000001</v>
       </c>
-      <c r="F166" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G166" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H166" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A167" s="9">
         <v>22</v>
       </c>
@@ -4901,17 +3353,8 @@
       <c r="E167" s="3">
         <v>0.17630000000000001</v>
       </c>
-      <c r="F167" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="G167" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H167" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168" s="9">
         <v>23</v>
       </c>
@@ -4927,17 +3370,8 @@
       <c r="E168" s="3">
         <v>0.1232</v>
       </c>
-      <c r="F168" s="15">
-        <v>2</v>
-      </c>
-      <c r="G168" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H168" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A169" s="9">
         <v>24</v>
       </c>
@@ -4953,17 +3387,8 @@
       <c r="E169" s="3">
         <v>0.16170000000000001</v>
       </c>
-      <c r="F169" s="15">
-        <v>1</v>
-      </c>
-      <c r="G169" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H169" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A170" s="9">
         <v>25</v>
       </c>
@@ -4979,17 +3404,8 @@
       <c r="E170" s="3">
         <v>0.1981</v>
       </c>
-      <c r="F170" s="15">
-        <v>6</v>
-      </c>
-      <c r="G170" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H170" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A171" s="9">
         <v>26</v>
       </c>
@@ -5005,17 +3421,8 @@
       <c r="E171" s="3">
         <v>0.15570000000000001</v>
       </c>
-      <c r="F171" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G171" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H171" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A172" s="9">
         <v>27</v>
       </c>
@@ -5031,17 +3438,8 @@
       <c r="E172" s="3">
         <v>0.1358</v>
       </c>
-      <c r="F172" s="15">
-        <v>2</v>
-      </c>
-      <c r="G172" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H172" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173" s="9">
         <v>28</v>
       </c>
@@ -5057,17 +3455,8 @@
       <c r="E173" s="3">
         <v>0.13250000000000001</v>
       </c>
-      <c r="F173" s="15">
-        <v>1</v>
-      </c>
-      <c r="G173" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H173" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A174" s="9">
         <v>29</v>
       </c>
@@ -5083,17 +3472,8 @@
       <c r="E174" s="3">
         <v>0.2016</v>
       </c>
-      <c r="F174" s="15">
-        <v>1</v>
-      </c>
-      <c r="G174" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H174" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A175" s="9">
         <v>30</v>
       </c>
@@ -5109,17 +3489,8 @@
       <c r="E175" s="3">
         <v>0.26140000000000002</v>
       </c>
-      <c r="F175" s="15">
-        <v>2</v>
-      </c>
-      <c r="G175" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H175" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A176" s="9">
         <v>31</v>
       </c>
@@ -5135,17 +3506,8 @@
       <c r="E176" s="3">
         <v>0.11609999999999999</v>
       </c>
-      <c r="F176" s="15">
-        <v>6</v>
-      </c>
-      <c r="G176" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H176" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A177" s="9">
         <v>32</v>
       </c>
@@ -5161,17 +3523,8 @@
       <c r="E177" s="3">
         <v>0.17530000000000001</v>
       </c>
-      <c r="F177" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="G177" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H177" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A178" s="9">
         <v>33</v>
       </c>
@@ -5187,17 +3540,8 @@
       <c r="E178" s="3">
         <v>0.14050000000000001</v>
       </c>
-      <c r="F178" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G178" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H178" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A179" s="9">
         <v>34</v>
       </c>
@@ -5213,17 +3557,8 @@
       <c r="E179" s="3">
         <v>0.1454</v>
       </c>
-      <c r="F179" s="15">
-        <v>5</v>
-      </c>
-      <c r="G179" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H179" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A180" s="9">
         <v>35</v>
       </c>
@@ -5239,17 +3574,8 @@
       <c r="E180" s="3">
         <v>0.1527</v>
       </c>
-      <c r="F180" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="G180" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H180" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A181" s="9">
         <v>36</v>
       </c>
@@ -5265,17 +3591,8 @@
       <c r="E181" s="3">
         <v>0.21190000000000001</v>
       </c>
-      <c r="F181" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="G181" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H181" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A182" s="9">
         <v>1</v>
       </c>
@@ -5291,17 +3608,8 @@
       <c r="E182" s="3">
         <v>0.11179775280898879</v>
       </c>
-      <c r="F182" s="15">
-        <v>2</v>
-      </c>
-      <c r="G182" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H182" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A183" s="9">
         <v>2</v>
       </c>
@@ -5317,17 +3625,8 @@
       <c r="E183" s="3">
         <v>0.1208913649025069</v>
       </c>
-      <c r="F183" s="15">
-        <v>6</v>
-      </c>
-      <c r="G183" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H183" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A184" s="9">
         <v>3</v>
       </c>
@@ -5343,17 +3642,8 @@
       <c r="E184" s="3">
         <v>9.8311218335343675E-2</v>
       </c>
-      <c r="F184" s="15">
-        <v>1</v>
-      </c>
-      <c r="G184" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H184" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A185" s="9">
         <v>4</v>
       </c>
@@ -5369,17 +3659,8 @@
       <c r="E185" s="3">
         <v>7.7997671711292058E-2</v>
       </c>
-      <c r="F185" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G185" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H185" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A186" s="9">
         <v>5</v>
       </c>
@@ -5395,17 +3676,8 @@
       <c r="E186" s="3">
         <v>8.9918256130790186E-2</v>
       </c>
-      <c r="F186" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G186" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H186" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A187" s="9">
         <v>6</v>
       </c>
@@ -5421,17 +3693,8 @@
       <c r="E187" s="3">
         <v>8.0825958702064826E-2</v>
       </c>
-      <c r="F187" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="G187" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H187" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A188" s="9">
         <v>7</v>
       </c>
@@ -5447,17 +3710,8 @@
       <c r="E188" s="3">
         <v>8.0778301886792553E-2</v>
       </c>
-      <c r="F188" s="15">
-        <v>2</v>
-      </c>
-      <c r="G188" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H188" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A189" s="9">
         <v>8</v>
       </c>
@@ -5473,17 +3727,8 @@
       <c r="E189" s="3">
         <v>9.6913580246913517E-2</v>
       </c>
-      <c r="F189" s="15">
-        <v>5</v>
-      </c>
-      <c r="G189" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H189" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A190" s="9">
         <v>9</v>
       </c>
@@ -5499,17 +3744,8 @@
       <c r="E190" s="3">
         <v>0.11485267588695125</v>
       </c>
-      <c r="F190" s="15">
-        <v>5</v>
-      </c>
-      <c r="G190" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H190" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A191" s="9">
         <v>10</v>
       </c>
@@ -5525,17 +3761,8 @@
       <c r="E191" s="3">
         <v>0.11428571428571432</v>
       </c>
-      <c r="F191" s="15">
-        <v>1</v>
-      </c>
-      <c r="G191" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H191" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A192" s="9">
         <v>11</v>
       </c>
@@ -5551,17 +3778,8 @@
       <c r="E192" s="3">
         <v>9.6142774899251507E-2</v>
       </c>
-      <c r="F192" s="15">
-        <v>2</v>
-      </c>
-      <c r="G192" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H192" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A193" s="9">
         <v>12</v>
       </c>
@@ -5577,17 +3795,8 @@
       <c r="E193" s="3">
         <v>8.38786436644854E-2</v>
       </c>
-      <c r="F193" s="15">
-        <v>5</v>
-      </c>
-      <c r="G193" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H193" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A194" s="9">
         <v>13</v>
       </c>
@@ -5603,17 +3812,8 @@
       <c r="E194" s="3">
         <v>8.9696969696969761E-2</v>
       </c>
-      <c r="F194" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="G194" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H194" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A195" s="9">
         <v>14</v>
       </c>
@@ -5629,17 +3829,8 @@
       <c r="E195" s="3">
         <v>7.8078078078078081E-2</v>
       </c>
-      <c r="F195" s="15">
-        <v>6</v>
-      </c>
-      <c r="G195" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H195" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A196" s="9">
         <v>15</v>
       </c>
@@ -5655,17 +3846,8 @@
       <c r="E196" s="3">
         <v>0.12119471568064329</v>
       </c>
-      <c r="F196" s="15">
-        <v>1</v>
-      </c>
-      <c r="G196" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H196" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A197" s="9">
         <v>16</v>
       </c>
@@ -5681,17 +3863,8 @@
       <c r="E197" s="3">
         <v>0.10205245153933869</v>
       </c>
-      <c r="F197" s="15">
-        <v>6</v>
-      </c>
-      <c r="G197" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H197" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198" s="9">
         <v>17</v>
       </c>
@@ -5707,17 +3880,8 @@
       <c r="E198" s="3">
         <v>7.1009076348104549E-2</v>
       </c>
-      <c r="F198" s="15">
-        <v>5</v>
-      </c>
-      <c r="G198" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H198" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A199" s="9">
         <v>18</v>
       </c>
@@ -5733,17 +3897,8 @@
       <c r="E199" s="3">
         <v>8.1328751431844135E-2</v>
       </c>
-      <c r="F199" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G199" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H199" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A200" s="9">
         <v>19</v>
       </c>
@@ -5759,17 +3914,8 @@
       <c r="E200" s="3">
         <v>0.11863425925925924</v>
       </c>
-      <c r="F200" s="15">
-        <v>5</v>
-      </c>
-      <c r="G200" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H200" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A201" s="9">
         <v>20</v>
       </c>
@@ -5785,17 +3931,8 @@
       <c r="E201" s="3">
         <v>0.14067278287461774</v>
       </c>
-      <c r="F201" s="15">
-        <v>6</v>
-      </c>
-      <c r="G201" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H201" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A202" s="9">
         <v>21</v>
       </c>
@@ -5811,17 +3948,8 @@
       <c r="E202" s="3">
         <v>7.8302450687387892E-2</v>
       </c>
-      <c r="F202" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G202" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H202" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A203" s="9">
         <v>22</v>
       </c>
@@ -5837,17 +3965,8 @@
       <c r="E203" s="3">
         <v>4.6592894583575836E-2</v>
       </c>
-      <c r="F203" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="G203" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H203" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A204" s="9">
         <v>23</v>
       </c>
@@ -5863,17 +3982,8 @@
       <c r="E204" s="3">
         <v>8.2830499177180439E-2</v>
       </c>
-      <c r="F204" s="15">
-        <v>2</v>
-      </c>
-      <c r="G204" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H204" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A205" s="9">
         <v>24</v>
       </c>
@@ -5889,17 +3999,8 @@
       <c r="E205" s="3">
         <v>8.9464390818128237E-2</v>
       </c>
-      <c r="F205" s="15">
-        <v>1</v>
-      </c>
-      <c r="G205" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H205" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A206" s="9">
         <v>25</v>
       </c>
@@ -5915,17 +4016,8 @@
       <c r="E206" s="3">
         <v>6.1213132999443351E-2</v>
       </c>
-      <c r="F206" s="15">
-        <v>6</v>
-      </c>
-      <c r="G206" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H206" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A207" s="9">
         <v>26</v>
       </c>
@@ -5941,17 +4033,8 @@
       <c r="E207" s="3">
         <v>4.6085508051082628E-2</v>
       </c>
-      <c r="F207" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G207" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H207" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A208" s="9">
         <v>27</v>
       </c>
@@ -5967,17 +4050,8 @@
       <c r="E208" s="3">
         <v>9.4915254237288194E-2</v>
       </c>
-      <c r="F208" s="15">
-        <v>2</v>
-      </c>
-      <c r="G208" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H208" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A209" s="9">
         <v>28</v>
       </c>
@@ -5993,17 +4067,8 @@
       <c r="E209" s="3">
         <v>4.8723897911832979E-2</v>
       </c>
-      <c r="F209" s="15">
-        <v>1</v>
-      </c>
-      <c r="G209" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H209" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A210" s="9">
         <v>29</v>
       </c>
@@ -6019,17 +4084,8 @@
       <c r="E210" s="3">
         <v>9.2367256637168077E-2</v>
       </c>
-      <c r="F210" s="15">
-        <v>1</v>
-      </c>
-      <c r="G210" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H210" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A211" s="9">
         <v>30</v>
       </c>
@@ -6045,17 +4101,8 @@
       <c r="E211" s="3">
         <v>0.1331325301204819</v>
       </c>
-      <c r="F211" s="15">
-        <v>2</v>
-      </c>
-      <c r="G211" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H211" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A212" s="9">
         <v>31</v>
       </c>
@@ -6071,17 +4118,8 @@
       <c r="E212" s="3">
         <v>9.1988130563798218E-2</v>
       </c>
-      <c r="F212" s="15">
-        <v>6</v>
-      </c>
-      <c r="G212" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H212" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A213" s="9">
         <v>32</v>
       </c>
@@ -6097,17 +4135,8 @@
       <c r="E213" s="3">
         <v>4.9375371802498402E-2</v>
       </c>
-      <c r="F213" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="G213" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H213" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A214" s="9">
         <v>33</v>
       </c>
@@ -6123,17 +4152,8 @@
       <c r="E214" s="3">
         <v>7.3184676958261766E-2</v>
       </c>
-      <c r="F214" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G214" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H214" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A215" s="9">
         <v>34</v>
       </c>
@@ -6149,17 +4169,8 @@
       <c r="E215" s="3">
         <v>9.8722415795586355E-2</v>
       </c>
-      <c r="F215" s="15">
-        <v>5</v>
-      </c>
-      <c r="G215" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H215" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A216" s="9">
         <v>35</v>
       </c>
@@ -6175,17 +4186,8 @@
       <c r="E216" s="3">
         <v>0.11124694376528128</v>
       </c>
-      <c r="F216" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="G216" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H216" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A217" s="9">
         <v>36</v>
       </c>
@@ -6201,17 +4203,8 @@
       <c r="E217" s="3">
         <v>6.4425770308123242E-2</v>
       </c>
-      <c r="F217" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="G217" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H217" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A218" s="11">
         <v>1</v>
       </c>
@@ -6227,17 +4220,8 @@
       <c r="E218" s="13">
         <v>0.20549999999999999</v>
       </c>
-      <c r="F218" s="15">
-        <v>2</v>
-      </c>
-      <c r="G218" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H218" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A219" s="11">
         <v>2</v>
       </c>
@@ -6253,17 +4237,8 @@
       <c r="E219" s="13">
         <v>0.19769999999999999</v>
       </c>
-      <c r="F219" s="15">
-        <v>6</v>
-      </c>
-      <c r="G219" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H219" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A220" s="11">
         <v>3</v>
       </c>
@@ -6279,17 +4254,8 @@
       <c r="E220" s="13">
         <v>0.19009999999999999</v>
       </c>
-      <c r="F220" s="15">
-        <v>1</v>
-      </c>
-      <c r="G220" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H220" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A221" s="11">
         <v>4</v>
       </c>
@@ -6305,17 +4271,8 @@
       <c r="E221" s="13">
         <v>0.18509999999999999</v>
       </c>
-      <c r="F221" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G221" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H221" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A222" s="11">
         <v>5</v>
       </c>
@@ -6331,17 +4288,8 @@
       <c r="E222" s="13">
         <v>0.15129999999999999</v>
       </c>
-      <c r="F222" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G222" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H222" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A223" s="11">
         <v>6</v>
       </c>
@@ -6357,17 +4305,8 @@
       <c r="E223" s="13">
         <v>0.17080000000000001</v>
       </c>
-      <c r="F223" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="G223" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H223" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A224" s="11">
         <v>7</v>
       </c>
@@ -6383,17 +4322,8 @@
       <c r="E224" s="13">
         <v>0.1764</v>
       </c>
-      <c r="F224" s="15">
-        <v>2</v>
-      </c>
-      <c r="G224" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H224" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A225" s="11">
         <v>8</v>
       </c>
@@ -6409,17 +4339,8 @@
       <c r="E225" s="13">
         <v>0.18099999999999999</v>
       </c>
-      <c r="F225" s="15">
-        <v>5</v>
-      </c>
-      <c r="G225" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H225" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A226" s="11">
         <v>9</v>
       </c>
@@ -6435,17 +4356,8 @@
       <c r="E226" s="13">
         <v>0.20630000000000001</v>
       </c>
-      <c r="F226" s="15">
-        <v>5</v>
-      </c>
-      <c r="G226" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H226" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A227" s="11">
         <v>10</v>
       </c>
@@ -6461,17 +4373,8 @@
       <c r="E227" s="13">
         <v>0.1842</v>
       </c>
-      <c r="F227" s="15">
-        <v>1</v>
-      </c>
-      <c r="G227" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H227" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A228" s="11">
         <v>11</v>
       </c>
@@ -6487,17 +4390,8 @@
       <c r="E228" s="13">
         <v>0.1643</v>
       </c>
-      <c r="F228" s="15">
-        <v>2</v>
-      </c>
-      <c r="G228" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H228" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A229" s="11">
         <v>12</v>
       </c>
@@ -6513,17 +4407,8 @@
       <c r="E229" s="13">
         <v>0.18640000000000001</v>
       </c>
-      <c r="F229" s="15">
-        <v>5</v>
-      </c>
-      <c r="G229" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H229" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A230" s="11">
         <v>13</v>
       </c>
@@ -6539,17 +4424,8 @@
       <c r="E230" s="13">
         <v>0.158</v>
       </c>
-      <c r="F230" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="G230" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H230" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A231" s="11">
         <v>14</v>
       </c>
@@ -6565,17 +4441,8 @@
       <c r="E231" s="13">
         <v>0.20300000000000001</v>
       </c>
-      <c r="F231" s="15">
-        <v>6</v>
-      </c>
-      <c r="G231" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H231" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A232" s="11">
         <v>15</v>
       </c>
@@ -6591,17 +4458,8 @@
       <c r="E232" s="13">
         <v>0.15820000000000001</v>
       </c>
-      <c r="F232" s="15">
-        <v>1</v>
-      </c>
-      <c r="G232" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H232" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A233" s="11">
         <v>16</v>
       </c>
@@ -6617,17 +4475,8 @@
       <c r="E233" s="13">
         <v>0.23930000000000001</v>
       </c>
-      <c r="F233" s="15">
-        <v>6</v>
-      </c>
-      <c r="G233" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H233" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A234" s="11">
         <v>17</v>
       </c>
@@ -6643,17 +4492,8 @@
       <c r="E234" s="13">
         <v>0.18509999999999999</v>
       </c>
-      <c r="F234" s="15">
-        <v>5</v>
-      </c>
-      <c r="G234" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H234" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A235" s="11">
         <v>18</v>
       </c>
@@ -6669,17 +4509,8 @@
       <c r="E235" s="13">
         <v>0.18890000000000001</v>
       </c>
-      <c r="F235" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G235" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H235" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A236" s="11">
         <v>19</v>
       </c>
@@ -6695,17 +4526,8 @@
       <c r="E236" s="13">
         <v>0.25940000000000002</v>
       </c>
-      <c r="F236" s="15">
-        <v>5</v>
-      </c>
-      <c r="G236" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H236" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A237" s="11">
         <v>20</v>
       </c>
@@ -6721,17 +4543,8 @@
       <c r="E237" s="13">
         <v>0.188</v>
       </c>
-      <c r="F237" s="15">
-        <v>6</v>
-      </c>
-      <c r="G237" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H237" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A238" s="11">
         <v>21</v>
       </c>
@@ -6747,17 +4560,8 @@
       <c r="E238" s="13">
         <v>0.1787</v>
       </c>
-      <c r="F238" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G238" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H238" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A239" s="11">
         <v>22</v>
       </c>
@@ -6773,17 +4577,8 @@
       <c r="E239" s="13">
         <v>0.18090000000000001</v>
       </c>
-      <c r="F239" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="G239" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H239" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A240" s="11">
         <v>23</v>
       </c>
@@ -6799,17 +4594,8 @@
       <c r="E240" s="13">
         <v>0.16969999999999999</v>
       </c>
-      <c r="F240" s="15">
-        <v>2</v>
-      </c>
-      <c r="G240" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H240" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A241" s="11">
         <v>24</v>
       </c>
@@ -6825,17 +4611,8 @@
       <c r="E241" s="13">
         <v>0.20810000000000001</v>
       </c>
-      <c r="F241" s="15">
-        <v>1</v>
-      </c>
-      <c r="G241" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H241" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A242" s="11">
         <v>25</v>
       </c>
@@ -6851,17 +4628,8 @@
       <c r="E242" s="13">
         <v>0.2135</v>
       </c>
-      <c r="F242" s="15">
-        <v>6</v>
-      </c>
-      <c r="G242" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H242" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A243" s="11">
         <v>26</v>
       </c>
@@ -6877,17 +4645,8 @@
       <c r="E243" s="13">
         <v>0.14269999999999999</v>
       </c>
-      <c r="F243" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G243" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H243" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A244" s="11">
         <v>27</v>
       </c>
@@ -6903,17 +4662,8 @@
       <c r="E244" s="13">
         <v>0.17899999999999999</v>
       </c>
-      <c r="F244" s="15">
-        <v>2</v>
-      </c>
-      <c r="G244" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H244" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A245" s="11">
         <v>28</v>
       </c>
@@ -6929,17 +4679,8 @@
       <c r="E245" s="13">
         <v>0.158</v>
       </c>
-      <c r="F245" s="15">
-        <v>1</v>
-      </c>
-      <c r="G245" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H245" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A246" s="11">
         <v>29</v>
       </c>
@@ -6955,17 +4696,8 @@
       <c r="E246" s="13">
         <v>0.27829999999999999</v>
       </c>
-      <c r="F246" s="15">
-        <v>1</v>
-      </c>
-      <c r="G246" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H246" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A247" s="11">
         <v>30</v>
       </c>
@@ -6981,17 +4713,8 @@
       <c r="E247" s="13">
         <v>0.2</v>
       </c>
-      <c r="F247" s="15">
-        <v>2</v>
-      </c>
-      <c r="G247" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H247" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A248" s="11">
         <v>31</v>
       </c>
@@ -7007,17 +4730,8 @@
       <c r="E248" s="13">
         <v>0.31709999999999999</v>
       </c>
-      <c r="F248" s="15">
-        <v>6</v>
-      </c>
-      <c r="G248" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H248" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A249" s="11">
         <v>32</v>
       </c>
@@ -7033,17 +4747,8 @@
       <c r="E249" s="13">
         <v>0.16800000000000001</v>
       </c>
-      <c r="F249" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="G249" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H249" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A250" s="11">
         <v>33</v>
       </c>
@@ -7059,17 +4764,8 @@
       <c r="E250" s="13">
         <v>0.18609999999999999</v>
       </c>
-      <c r="F250" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G250" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H250" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A251" s="11">
         <v>34</v>
       </c>
@@ -7085,17 +4781,8 @@
       <c r="E251" s="13">
         <v>0.18859999999999999</v>
       </c>
-      <c r="F251" s="15">
-        <v>5</v>
-      </c>
-      <c r="G251" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H251" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A252" s="11">
         <v>35</v>
       </c>
@@ -7111,17 +4798,8 @@
       <c r="E252" s="13">
         <v>0.2432</v>
       </c>
-      <c r="F252" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="G252" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H252" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A253" s="11">
         <v>36</v>
       </c>
@@ -7137,17 +4815,8 @@
       <c r="E253" s="13">
         <v>0.17280000000000001</v>
       </c>
-      <c r="F253" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="G253" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H253" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A254" s="1">
         <v>1</v>
       </c>
@@ -7163,17 +4832,8 @@
       <c r="E254" s="13">
         <v>0.27300000000000002</v>
       </c>
-      <c r="F254" s="15">
-        <v>2</v>
-      </c>
-      <c r="G254" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H254" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A255" s="1">
         <v>2</v>
       </c>
@@ -7189,17 +4849,8 @@
       <c r="E255" s="13">
         <v>0.29509999999999997</v>
       </c>
-      <c r="F255" s="15">
-        <v>6</v>
-      </c>
-      <c r="G255" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H255" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A256" s="1">
         <v>3</v>
       </c>
@@ -7215,17 +4866,8 @@
       <c r="E256" s="13">
         <v>0.2424</v>
       </c>
-      <c r="F256" s="15">
-        <v>1</v>
-      </c>
-      <c r="G256" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H256" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A257" s="1">
         <v>4</v>
       </c>
@@ -7241,17 +4883,8 @@
       <c r="E257" s="13">
         <v>0.29389999999999999</v>
       </c>
-      <c r="F257" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G257" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H257" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A258" s="1">
         <v>5</v>
       </c>
@@ -7267,17 +4900,8 @@
       <c r="E258" s="13">
         <v>0.27760000000000001</v>
       </c>
-      <c r="F258" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G258" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H258" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A259" s="1">
         <v>6</v>
       </c>
@@ -7293,17 +4917,8 @@
       <c r="E259" s="13">
         <v>0.26129999999999998</v>
       </c>
-      <c r="F259" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="G259" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H259" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A260" s="1">
         <v>7</v>
       </c>
@@ -7319,17 +4934,8 @@
       <c r="E260" s="13">
         <v>0.22520000000000001</v>
       </c>
-      <c r="F260" s="15">
-        <v>2</v>
-      </c>
-      <c r="G260" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H260" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A261" s="1">
         <v>8</v>
       </c>
@@ -7345,17 +4951,8 @@
       <c r="E261" s="13">
         <v>0.2676</v>
       </c>
-      <c r="F261" s="15">
-        <v>5</v>
-      </c>
-      <c r="G261" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H261" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A262" s="1">
         <v>9</v>
       </c>
@@ -7371,17 +4968,8 @@
       <c r="E262" s="13">
         <v>0.25729999999999997</v>
       </c>
-      <c r="F262" s="15">
-        <v>5</v>
-      </c>
-      <c r="G262" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H262" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A263" s="1">
         <v>10</v>
       </c>
@@ -7397,17 +4985,8 @@
       <c r="E263" s="13">
         <v>0.26889999999999997</v>
       </c>
-      <c r="F263" s="15">
-        <v>1</v>
-      </c>
-      <c r="G263" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H263" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A264" s="1">
         <v>11</v>
       </c>
@@ -7423,17 +5002,8 @@
       <c r="E264" s="13">
         <v>0.2379</v>
       </c>
-      <c r="F264" s="15">
-        <v>2</v>
-      </c>
-      <c r="G264" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H264" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A265" s="1">
         <v>12</v>
       </c>
@@ -7449,17 +5019,8 @@
       <c r="E265" s="13">
         <v>0.26300000000000001</v>
       </c>
-      <c r="F265" s="15">
-        <v>5</v>
-      </c>
-      <c r="G265" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H265" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A266" s="1">
         <v>13</v>
       </c>
@@ -7475,17 +5036,8 @@
       <c r="E266" s="13">
         <v>0.29089999999999999</v>
       </c>
-      <c r="F266" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="G266" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H266" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A267" s="1">
         <v>14</v>
       </c>
@@ -7501,17 +5053,8 @@
       <c r="E267" s="13">
         <v>0.25409999999999999</v>
       </c>
-      <c r="F267" s="15">
-        <v>6</v>
-      </c>
-      <c r="G267" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H267" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A268" s="1">
         <v>15</v>
       </c>
@@ -7527,17 +5070,8 @@
       <c r="E268" s="13">
         <v>0.26719999999999999</v>
       </c>
-      <c r="F268" s="15">
-        <v>1</v>
-      </c>
-      <c r="G268" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H268" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A269" s="1">
         <v>16</v>
       </c>
@@ -7553,17 +5087,8 @@
       <c r="E269" s="13">
         <v>0.24909999999999999</v>
       </c>
-      <c r="F269" s="15">
-        <v>6</v>
-      </c>
-      <c r="G269" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H269" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A270" s="1">
         <v>17</v>
       </c>
@@ -7579,17 +5104,8 @@
       <c r="E270" s="13">
         <v>0.24970000000000001</v>
       </c>
-      <c r="F270" s="15">
-        <v>5</v>
-      </c>
-      <c r="G270" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H270" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A271" s="1">
         <v>18</v>
       </c>
@@ -7605,17 +5121,8 @@
       <c r="E271" s="13">
         <v>0.2427</v>
       </c>
-      <c r="F271" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G271" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H271" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A272" s="1">
         <v>19</v>
       </c>
@@ -7631,17 +5138,8 @@
       <c r="E272" s="13">
         <v>0.28749999999999998</v>
       </c>
-      <c r="F272" s="15">
-        <v>5</v>
-      </c>
-      <c r="G272" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H272" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A273" s="1">
         <v>20</v>
       </c>
@@ -7657,17 +5155,8 @@
       <c r="E273" s="13">
         <v>0.29530000000000001</v>
       </c>
-      <c r="F273" s="15">
-        <v>6</v>
-      </c>
-      <c r="G273" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H273" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A274" s="1">
         <v>21</v>
       </c>
@@ -7683,17 +5172,8 @@
       <c r="E274" s="13">
         <v>0.26319999999999999</v>
       </c>
-      <c r="F274" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G274" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H274" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A275" s="1">
         <v>22</v>
       </c>
@@ -7709,17 +5189,8 @@
       <c r="E275" s="13">
         <v>0.28070000000000001</v>
       </c>
-      <c r="F275" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="G275" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H275" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A276" s="1">
         <v>23</v>
       </c>
@@ -7735,17 +5206,8 @@
       <c r="E276" s="13">
         <v>0.28889999999999999</v>
       </c>
-      <c r="F276" s="15">
-        <v>2</v>
-      </c>
-      <c r="G276" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H276" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A277" s="1">
         <v>24</v>
       </c>
@@ -7761,17 +5223,8 @@
       <c r="E277" s="13">
         <v>0.26840000000000003</v>
       </c>
-      <c r="F277" s="15">
-        <v>1</v>
-      </c>
-      <c r="G277" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H277" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A278" s="1">
         <v>25</v>
       </c>
@@ -7787,17 +5240,8 @@
       <c r="E278" s="13">
         <v>0.2833</v>
       </c>
-      <c r="F278" s="15">
-        <v>6</v>
-      </c>
-      <c r="G278" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H278" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A279" s="1">
         <v>26</v>
       </c>
@@ -7813,17 +5257,8 @@
       <c r="E279" s="13">
         <v>0.28360000000000002</v>
       </c>
-      <c r="F279" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G279" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H279" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A280" s="1">
         <v>27</v>
       </c>
@@ -7839,17 +5274,8 @@
       <c r="E280" s="13">
         <v>0.26579999999999998</v>
       </c>
-      <c r="F280" s="15">
-        <v>2</v>
-      </c>
-      <c r="G280" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H280" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A281" s="1">
         <v>28</v>
       </c>
@@ -7865,17 +5291,8 @@
       <c r="E281" s="13">
         <v>0.21360000000000001</v>
       </c>
-      <c r="F281" s="15">
-        <v>1</v>
-      </c>
-      <c r="G281" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H281" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A282" s="1">
         <v>29</v>
       </c>
@@ -7891,17 +5308,8 @@
       <c r="E282" s="13">
         <v>0.25309999999999999</v>
       </c>
-      <c r="F282" s="15">
-        <v>1</v>
-      </c>
-      <c r="G282" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H282" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A283" s="1">
         <v>30</v>
       </c>
@@ -7917,17 +5325,8 @@
       <c r="E283" s="13">
         <v>0.2752</v>
       </c>
-      <c r="F283" s="15">
-        <v>2</v>
-      </c>
-      <c r="G283" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H283" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A284" s="1">
         <v>31</v>
       </c>
@@ -7943,17 +5342,8 @@
       <c r="E284" s="13">
         <v>0.28360000000000002</v>
       </c>
-      <c r="F284" s="15">
-        <v>6</v>
-      </c>
-      <c r="G284" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H284" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A285" s="1">
         <v>32</v>
       </c>
@@ -7969,17 +5359,8 @@
       <c r="E285" s="13">
         <v>0.25190000000000001</v>
       </c>
-      <c r="F285" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="G285" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H285" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A286" s="1">
         <v>33</v>
       </c>
@@ -7995,17 +5376,8 @@
       <c r="E286" s="13">
         <v>0.25990000000000002</v>
       </c>
-      <c r="F286" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G286" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H286" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A287" s="1">
         <v>34</v>
       </c>
@@ -8021,17 +5393,8 @@
       <c r="E287" s="13">
         <v>0.25230000000000002</v>
       </c>
-      <c r="F287" s="15">
-        <v>5</v>
-      </c>
-      <c r="G287" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H287" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A288" s="1">
         <v>35</v>
       </c>
@@ -8047,17 +5410,8 @@
       <c r="E288" s="13">
         <v>0.2928</v>
       </c>
-      <c r="F288" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="G288" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H288" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A289" s="1">
         <v>36</v>
       </c>
@@ -8073,17 +5427,8 @@
       <c r="E289" s="13">
         <v>0.31830000000000003</v>
       </c>
-      <c r="F289" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="G289" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H289" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A290" s="1">
         <v>1</v>
       </c>
@@ -8099,17 +5444,8 @@
       <c r="E290" s="3">
         <v>0.124</v>
       </c>
-      <c r="F290" s="15">
-        <v>2</v>
-      </c>
-      <c r="G290" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H290" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A291" s="1">
         <v>2</v>
       </c>
@@ -8125,17 +5461,8 @@
       <c r="E291" s="3">
         <v>0.2419</v>
       </c>
-      <c r="F291" s="15">
-        <v>6</v>
-      </c>
-      <c r="G291" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H291" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A292" s="1">
         <v>3</v>
       </c>
@@ -8151,17 +5478,8 @@
       <c r="E292" s="3">
         <v>0.18410000000000001</v>
       </c>
-      <c r="F292" s="15">
-        <v>1</v>
-      </c>
-      <c r="G292" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H292" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A293" s="1">
         <v>4</v>
       </c>
@@ -8177,17 +5495,8 @@
       <c r="E293" s="3">
         <v>0.21929999999999999</v>
       </c>
-      <c r="F293" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G293" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H293" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A294" s="1">
         <v>5</v>
       </c>
@@ -8203,17 +5512,8 @@
       <c r="E294" s="3">
         <v>0.2029</v>
       </c>
-      <c r="F294" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G294" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H294" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A295" s="1">
         <v>6</v>
       </c>
@@ -8229,17 +5529,8 @@
       <c r="E295" s="3">
         <v>0.14779999999999999</v>
       </c>
-      <c r="F295" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="G295" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H295" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A296" s="1">
         <v>7</v>
       </c>
@@ -8255,17 +5546,8 @@
       <c r="E296" s="3">
         <v>0.20019999999999999</v>
       </c>
-      <c r="F296" s="15">
-        <v>2</v>
-      </c>
-      <c r="G296" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H296" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A297" s="1">
         <v>8</v>
       </c>
@@ -8281,17 +5563,8 @@
       <c r="E297" s="3">
         <v>0.29530000000000001</v>
       </c>
-      <c r="F297" s="15">
-        <v>5</v>
-      </c>
-      <c r="G297" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H297" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A298" s="1">
         <v>9</v>
       </c>
@@ -8307,17 +5580,8 @@
       <c r="E298" s="3">
         <v>0.1915</v>
       </c>
-      <c r="F298" s="15">
-        <v>5</v>
-      </c>
-      <c r="G298" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H298" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A299" s="1">
         <v>10</v>
       </c>
@@ -8333,17 +5597,8 @@
       <c r="E299" s="3">
         <v>0.15490000000000001</v>
       </c>
-      <c r="F299" s="15">
-        <v>1</v>
-      </c>
-      <c r="G299" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H299" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A300" s="1">
         <v>11</v>
       </c>
@@ -8359,17 +5614,8 @@
       <c r="E300" s="3">
         <v>0.16619999999999999</v>
       </c>
-      <c r="F300" s="15">
-        <v>2</v>
-      </c>
-      <c r="G300" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H300" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A301" s="1">
         <v>12</v>
       </c>
@@ -8385,17 +5631,8 @@
       <c r="E301" s="3">
         <v>0.27760000000000001</v>
       </c>
-      <c r="F301" s="15">
-        <v>5</v>
-      </c>
-      <c r="G301" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H301" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A302" s="1">
         <v>13</v>
       </c>
@@ -8411,17 +5648,8 @@
       <c r="E302" s="3">
         <v>0.1658</v>
       </c>
-      <c r="F302" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="G302" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H302" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A303" s="1">
         <v>14</v>
       </c>
@@ -8437,17 +5665,8 @@
       <c r="E303" s="3">
         <v>0.253</v>
       </c>
-      <c r="F303" s="15">
-        <v>6</v>
-      </c>
-      <c r="G303" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H303" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A304" s="1">
         <v>15</v>
       </c>
@@ -8463,17 +5682,8 @@
       <c r="E304" s="3">
         <v>0.20610000000000001</v>
       </c>
-      <c r="F304" s="15">
-        <v>1</v>
-      </c>
-      <c r="G304" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H304" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A305" s="1">
         <v>16</v>
       </c>
@@ -8489,17 +5699,8 @@
       <c r="E305" s="3">
         <v>0.23760000000000001</v>
       </c>
-      <c r="F305" s="15">
-        <v>6</v>
-      </c>
-      <c r="G305" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H305" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A306" s="1">
         <v>17</v>
       </c>
@@ -8515,17 +5716,8 @@
       <c r="E306" s="3">
         <v>0.1234</v>
       </c>
-      <c r="F306" s="15">
-        <v>5</v>
-      </c>
-      <c r="G306" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H306" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A307" s="1">
         <v>18</v>
       </c>
@@ -8541,17 +5733,8 @@
       <c r="E307" s="3">
         <v>0.2379</v>
       </c>
-      <c r="F307" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G307" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H307" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A308" s="1">
         <v>19</v>
       </c>
@@ -8567,17 +5750,8 @@
       <c r="E308" s="3">
         <v>0.19919999999999999</v>
       </c>
-      <c r="F308" s="15">
-        <v>5</v>
-      </c>
-      <c r="G308" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H308" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A309" s="1">
         <v>20</v>
       </c>
@@ -8593,17 +5767,8 @@
       <c r="E309" s="3">
         <v>0.26529999999999998</v>
       </c>
-      <c r="F309" s="15">
-        <v>6</v>
-      </c>
-      <c r="G309" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H309" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A310" s="1">
         <v>21</v>
       </c>
@@ -8619,17 +5784,8 @@
       <c r="E310" s="3">
         <v>0.1782</v>
       </c>
-      <c r="F310" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G310" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H310" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A311" s="1">
         <v>22</v>
       </c>
@@ -8645,17 +5801,8 @@
       <c r="E311" s="3">
         <v>0.20019999999999999</v>
       </c>
-      <c r="F311" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="G311" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H311" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A312" s="1">
         <v>23</v>
       </c>
@@ -8671,17 +5818,8 @@
       <c r="E312" s="3">
         <v>0.15229999999999999</v>
       </c>
-      <c r="F312" s="15">
-        <v>2</v>
-      </c>
-      <c r="G312" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H312" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A313" s="1">
         <v>24</v>
       </c>
@@ -8697,17 +5835,8 @@
       <c r="E313" s="3">
         <v>0.2099</v>
       </c>
-      <c r="F313" s="15">
-        <v>1</v>
-      </c>
-      <c r="G313" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H313" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A314" s="1">
         <v>25</v>
       </c>
@@ -8723,17 +5852,8 @@
       <c r="E314" s="3">
         <v>0.1749</v>
       </c>
-      <c r="F314" s="15">
-        <v>6</v>
-      </c>
-      <c r="G314" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H314" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A315" s="1">
         <v>26</v>
       </c>
@@ -8749,17 +5869,8 @@
       <c r="E315" s="3">
         <v>0.24959999999999999</v>
       </c>
-      <c r="F315" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G315" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H315" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A316" s="1">
         <v>27</v>
       </c>
@@ -8775,17 +5886,8 @@
       <c r="E316" s="3">
         <v>0.1431</v>
       </c>
-      <c r="F316" s="15">
-        <v>2</v>
-      </c>
-      <c r="G316" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H316" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A317" s="1">
         <v>28</v>
       </c>
@@ -8801,17 +5903,8 @@
       <c r="E317" s="3">
         <v>0.15210000000000001</v>
       </c>
-      <c r="F317" s="15">
-        <v>1</v>
-      </c>
-      <c r="G317" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H317" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A318" s="1">
         <v>29</v>
       </c>
@@ -8827,17 +5920,8 @@
       <c r="E318" s="3">
         <v>0.2049</v>
       </c>
-      <c r="F318" s="15">
-        <v>1</v>
-      </c>
-      <c r="G318" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H318" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A319" s="1">
         <v>30</v>
       </c>
@@ -8853,17 +5937,8 @@
       <c r="E319" s="3">
         <v>0.24310000000000001</v>
       </c>
-      <c r="F319" s="15">
-        <v>2</v>
-      </c>
-      <c r="G319" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H319" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A320" s="1">
         <v>31</v>
       </c>
@@ -8879,17 +5954,8 @@
       <c r="E320" s="3">
         <v>0.15390000000000001</v>
       </c>
-      <c r="F320" s="15">
-        <v>6</v>
-      </c>
-      <c r="G320" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H320" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A321" s="1">
         <v>32</v>
       </c>
@@ -8905,17 +5971,8 @@
       <c r="E321" s="3">
         <v>0.1782</v>
       </c>
-      <c r="F321" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="G321" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H321" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A322" s="1">
         <v>33</v>
       </c>
@@ -8931,17 +5988,8 @@
       <c r="E322" s="3">
         <v>0.14649999999999999</v>
       </c>
-      <c r="F322" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G322" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H322" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A323" s="1">
         <v>34</v>
       </c>
@@ -8957,17 +6005,8 @@
       <c r="E323" s="3">
         <v>0.1903</v>
       </c>
-      <c r="F323" s="15">
-        <v>5</v>
-      </c>
-      <c r="G323" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H323" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A324" s="1">
         <v>35</v>
       </c>
@@ -8983,17 +6022,8 @@
       <c r="E324" s="3">
         <v>0.17299999999999999</v>
       </c>
-      <c r="F324" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="G324" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H324" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A325" s="1">
         <v>36</v>
       </c>
@@ -9009,17 +6039,8 @@
       <c r="E325" s="3">
         <v>0.2356</v>
       </c>
-      <c r="F325" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="G325" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H325" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A326" s="1">
         <v>1</v>
       </c>
@@ -9035,17 +6056,8 @@
       <c r="E326" s="13">
         <v>0.14779999999999999</v>
       </c>
-      <c r="F326" s="15">
-        <v>2</v>
-      </c>
-      <c r="G326" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H326" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A327" s="1">
         <v>2</v>
       </c>
@@ -9061,17 +6073,8 @@
       <c r="E327" s="13">
         <v>0.21299999999999999</v>
       </c>
-      <c r="F327" s="15">
-        <v>6</v>
-      </c>
-      <c r="G327" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H327" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A328" s="1">
         <v>3</v>
       </c>
@@ -9087,17 +6090,8 @@
       <c r="E328" s="13">
         <v>0.1351</v>
       </c>
-      <c r="F328" s="15">
-        <v>1</v>
-      </c>
-      <c r="G328" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H328" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A329" s="1">
         <v>4</v>
       </c>
@@ -9113,17 +6107,8 @@
       <c r="E329" s="13">
         <v>0.1421</v>
       </c>
-      <c r="F329" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G329" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H329" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A330" s="1">
         <v>5</v>
       </c>
@@ -9139,17 +6124,8 @@
       <c r="E330" s="13">
         <v>0.14019999999999999</v>
       </c>
-      <c r="F330" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G330" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H330" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A331" s="1">
         <v>6</v>
       </c>
@@ -9165,17 +6141,8 @@
       <c r="E331" s="13">
         <v>0.13339999999999999</v>
       </c>
-      <c r="F331" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="G331" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H331" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A332" s="1">
         <v>7</v>
       </c>
@@ -9191,17 +6158,8 @@
       <c r="E332" s="13">
         <v>0.14480000000000001</v>
       </c>
-      <c r="F332" s="15">
-        <v>2</v>
-      </c>
-      <c r="G332" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H332" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A333" s="1">
         <v>8</v>
       </c>
@@ -9217,17 +6175,8 @@
       <c r="E333" s="13">
         <v>0.18410000000000001</v>
       </c>
-      <c r="F333" s="15">
-        <v>5</v>
-      </c>
-      <c r="G333" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H333" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A334" s="1">
         <v>9</v>
       </c>
@@ -9243,17 +6192,8 @@
       <c r="E334" s="13">
         <v>0.15029999999999999</v>
       </c>
-      <c r="F334" s="15">
-        <v>5</v>
-      </c>
-      <c r="G334" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H334" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A335" s="1">
         <v>10</v>
       </c>
@@ -9269,17 +6209,8 @@
       <c r="E335" s="13">
         <v>0.1401</v>
       </c>
-      <c r="F335" s="15">
-        <v>1</v>
-      </c>
-      <c r="G335" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H335" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A336" s="1">
         <v>11</v>
       </c>
@@ -9295,17 +6226,8 @@
       <c r="E336" s="13">
         <v>0.1159</v>
       </c>
-      <c r="F336" s="15">
-        <v>2</v>
-      </c>
-      <c r="G336" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H336" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A337" s="1">
         <v>12</v>
       </c>
@@ -9321,17 +6243,8 @@
       <c r="E337" s="13">
         <v>0.1447</v>
       </c>
-      <c r="F337" s="15">
-        <v>5</v>
-      </c>
-      <c r="G337" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H337" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A338" s="1">
         <v>13</v>
       </c>
@@ -9347,17 +6260,8 @@
       <c r="E338" s="13">
         <v>0.14380000000000001</v>
       </c>
-      <c r="F338" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="G338" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H338" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A339" s="1">
         <v>14</v>
       </c>
@@ -9373,17 +6277,8 @@
       <c r="E339" s="13">
         <v>0.16470000000000001</v>
       </c>
-      <c r="F339" s="15">
-        <v>6</v>
-      </c>
-      <c r="G339" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H339" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A340" s="1">
         <v>15</v>
       </c>
@@ -9399,17 +6294,8 @@
       <c r="E340" s="13">
         <v>0.15679999999999999</v>
       </c>
-      <c r="F340" s="15">
-        <v>1</v>
-      </c>
-      <c r="G340" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H340" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A341" s="1">
         <v>16</v>
       </c>
@@ -9425,17 +6311,8 @@
       <c r="E341" s="13">
         <v>0.21340000000000001</v>
       </c>
-      <c r="F341" s="15">
-        <v>6</v>
-      </c>
-      <c r="G341" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H341" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A342" s="1">
         <v>17</v>
       </c>
@@ -9451,17 +6328,8 @@
       <c r="E342" s="13">
         <v>0.12909999999999999</v>
       </c>
-      <c r="F342" s="15">
-        <v>5</v>
-      </c>
-      <c r="G342" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H342" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A343" s="1">
         <v>18</v>
       </c>
@@ -9477,17 +6345,8 @@
       <c r="E343" s="13">
         <v>0.13669999999999999</v>
       </c>
-      <c r="F343" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G343" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H343" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A344" s="1">
         <v>19</v>
       </c>
@@ -9503,17 +6362,8 @@
       <c r="E344" s="13">
         <v>0.18709999999999999</v>
       </c>
-      <c r="F344" s="15">
-        <v>5</v>
-      </c>
-      <c r="G344" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H344" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A345" s="1">
         <v>20</v>
       </c>
@@ -9529,17 +6379,8 @@
       <c r="E345" s="13">
         <v>0.1646</v>
       </c>
-      <c r="F345" s="15">
-        <v>6</v>
-      </c>
-      <c r="G345" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H345" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A346" s="1">
         <v>21</v>
       </c>
@@ -9555,17 +6396,8 @@
       <c r="E346" s="13">
         <v>0.1656</v>
       </c>
-      <c r="F346" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G346" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H346" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A347" s="1">
         <v>22</v>
       </c>
@@ -9581,17 +6413,8 @@
       <c r="E347" s="13">
         <v>0.16220000000000001</v>
       </c>
-      <c r="F347" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="G347" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H347" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A348" s="1">
         <v>23</v>
       </c>
@@ -9607,17 +6430,8 @@
       <c r="E348" s="13">
         <v>0.14680000000000001</v>
       </c>
-      <c r="F348" s="15">
-        <v>2</v>
-      </c>
-      <c r="G348" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H348" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A349" s="1">
         <v>24</v>
       </c>
@@ -9633,17 +6447,8 @@
       <c r="E349" s="13">
         <v>0.1653</v>
       </c>
-      <c r="F349" s="15">
-        <v>1</v>
-      </c>
-      <c r="G349" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H349" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A350" s="1">
         <v>25</v>
       </c>
@@ -9659,17 +6464,8 @@
       <c r="E350" s="13">
         <v>0.23419999999999999</v>
       </c>
-      <c r="F350" s="15">
-        <v>6</v>
-      </c>
-      <c r="G350" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H350" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A351" s="1">
         <v>26</v>
       </c>
@@ -9685,17 +6481,8 @@
       <c r="E351" s="13">
         <v>0.18429999999999999</v>
       </c>
-      <c r="F351" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G351" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H351" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A352" s="1">
         <v>27</v>
       </c>
@@ -9711,17 +6498,8 @@
       <c r="E352" s="13">
         <v>0.13730000000000001</v>
       </c>
-      <c r="F352" s="15">
-        <v>2</v>
-      </c>
-      <c r="G352" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H352" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A353" s="1">
         <v>28</v>
       </c>
@@ -9737,17 +6515,8 @@
       <c r="E353" s="13">
         <v>8.4699999999999998E-2</v>
       </c>
-      <c r="F353" s="15">
-        <v>1</v>
-      </c>
-      <c r="G353" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H353" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A354" s="1">
         <v>29</v>
       </c>
@@ -9763,17 +6532,8 @@
       <c r="E354" s="13">
         <v>0.13059999999999999</v>
       </c>
-      <c r="F354" s="15">
-        <v>1</v>
-      </c>
-      <c r="G354" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H354" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A355" s="1">
         <v>30</v>
       </c>
@@ -9789,17 +6549,8 @@
       <c r="E355" s="13">
         <v>0.16059999999999999</v>
       </c>
-      <c r="F355" s="15">
-        <v>2</v>
-      </c>
-      <c r="G355" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H355" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A356" s="1">
         <v>31</v>
       </c>
@@ -9815,17 +6566,8 @@
       <c r="E356" s="13">
         <v>0.17630000000000001</v>
       </c>
-      <c r="F356" s="15">
-        <v>6</v>
-      </c>
-      <c r="G356" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H356" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A357" s="1">
         <v>32</v>
       </c>
@@ -9841,17 +6583,8 @@
       <c r="E357" s="13">
         <v>0.15920000000000001</v>
       </c>
-      <c r="F357" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="G357" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H357" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A358" s="1">
         <v>33</v>
       </c>
@@ -9867,17 +6600,8 @@
       <c r="E358" s="13">
         <v>0.15390000000000001</v>
       </c>
-      <c r="F358" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G358" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H358" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A359" s="1">
         <v>34</v>
       </c>
@@ -9893,17 +6617,8 @@
       <c r="E359" s="13">
         <v>0.14849999999999999</v>
       </c>
-      <c r="F359" s="15">
-        <v>5</v>
-      </c>
-      <c r="G359" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H359" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A360" s="1">
         <v>35</v>
       </c>
@@ -9919,17 +6634,8 @@
       <c r="E360" s="13">
         <v>0.1615</v>
       </c>
-      <c r="F360" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="G360" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H360" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A361" s="1">
         <v>36</v>
       </c>
@@ -9945,17 +6651,8 @@
       <c r="E361" s="13">
         <v>0.16869999999999999</v>
       </c>
-      <c r="F361" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="G361" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H361" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A362" s="1">
         <v>1</v>
       </c>
@@ -9971,17 +6668,8 @@
       <c r="E362" s="16">
         <v>0.27979999999999999</v>
       </c>
-      <c r="F362" s="15">
-        <v>2</v>
-      </c>
-      <c r="G362" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H362" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A363" s="1">
         <v>2</v>
       </c>
@@ -9997,17 +6685,8 @@
       <c r="E363" s="16">
         <v>0.27950000000000003</v>
       </c>
-      <c r="F363" s="15">
-        <v>6</v>
-      </c>
-      <c r="G363" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H363" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A364" s="1">
         <v>3</v>
       </c>
@@ -10023,17 +6702,8 @@
       <c r="E364" s="16">
         <v>0.22220000000000001</v>
       </c>
-      <c r="F364" s="15">
-        <v>1</v>
-      </c>
-      <c r="G364" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H364" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A365" s="1">
         <v>4</v>
       </c>
@@ -10049,17 +6719,8 @@
       <c r="E365" s="16">
         <v>0.27810000000000001</v>
       </c>
-      <c r="F365" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G365" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H365" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A366" s="1">
         <v>5</v>
       </c>
@@ -10075,17 +6736,8 @@
       <c r="E366" s="16">
         <v>0.23960000000000001</v>
       </c>
-      <c r="F366" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G366" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H366" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A367" s="1">
         <v>6</v>
       </c>
@@ -10101,17 +6753,8 @@
       <c r="E367" s="16">
         <v>0.23760000000000001</v>
       </c>
-      <c r="F367" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="G367" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H367" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A368" s="1">
         <v>7</v>
       </c>
@@ -10127,17 +6770,8 @@
       <c r="E368" s="16">
         <v>0.2072</v>
       </c>
-      <c r="F368" s="15">
-        <v>2</v>
-      </c>
-      <c r="G368" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H368" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A369" s="1">
         <v>8</v>
       </c>
@@ -10153,17 +6787,8 @@
       <c r="E369" s="16">
         <v>0.26790000000000003</v>
       </c>
-      <c r="F369" s="15">
-        <v>5</v>
-      </c>
-      <c r="G369" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H369" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A370" s="1">
         <v>9</v>
       </c>
@@ -10179,17 +6804,8 @@
       <c r="E370" s="16">
         <v>0.19650000000000001</v>
       </c>
-      <c r="F370" s="15">
-        <v>5</v>
-      </c>
-      <c r="G370" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H370" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A371" s="1">
         <v>10</v>
       </c>
@@ -10205,17 +6821,8 @@
       <c r="E371" s="16">
         <v>0.25040000000000001</v>
       </c>
-      <c r="F371" s="15">
-        <v>1</v>
-      </c>
-      <c r="G371" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H371" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A372" s="1">
         <v>11</v>
       </c>
@@ -10231,17 +6838,8 @@
       <c r="E372" s="16">
         <v>0.2301</v>
       </c>
-      <c r="F372" s="15">
-        <v>2</v>
-      </c>
-      <c r="G372" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H372" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A373" s="1">
         <v>12</v>
       </c>
@@ -10257,17 +6855,8 @@
       <c r="E373" s="16">
         <v>0.26979999999999998</v>
       </c>
-      <c r="F373" s="15">
-        <v>5</v>
-      </c>
-      <c r="G373" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H373" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A374" s="1">
         <v>13</v>
       </c>
@@ -10283,17 +6872,8 @@
       <c r="E374" s="16">
         <v>0.24399999999999999</v>
       </c>
-      <c r="F374" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="G374" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H374" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A375" s="1">
         <v>14</v>
       </c>
@@ -10309,17 +6889,8 @@
       <c r="E375" s="16">
         <v>0.29339999999999999</v>
       </c>
-      <c r="F375" s="15">
-        <v>6</v>
-      </c>
-      <c r="G375" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H375" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A376" s="1">
         <v>15</v>
       </c>
@@ -10335,17 +6906,8 @@
       <c r="E376" s="16">
         <v>0.2215</v>
       </c>
-      <c r="F376" s="15">
-        <v>1</v>
-      </c>
-      <c r="G376" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H376" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A377" s="1">
         <v>16</v>
       </c>
@@ -10361,17 +6923,8 @@
       <c r="E377" s="16">
         <v>0.26790000000000003</v>
       </c>
-      <c r="F377" s="15">
-        <v>6</v>
-      </c>
-      <c r="G377" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H377" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A378" s="1">
         <v>17</v>
       </c>
@@ -10387,17 +6940,8 @@
       <c r="E378" s="16">
         <v>0.218</v>
       </c>
-      <c r="F378" s="15">
-        <v>5</v>
-      </c>
-      <c r="G378" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H378" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A379" s="1">
         <v>18</v>
       </c>
@@ -10413,17 +6957,8 @@
       <c r="E379" s="16">
         <v>0.2601</v>
       </c>
-      <c r="F379" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G379" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H379" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A380" s="1">
         <v>19</v>
       </c>
@@ -10439,17 +6974,8 @@
       <c r="E380" s="16">
         <v>0.20649999999999999</v>
       </c>
-      <c r="F380" s="15">
-        <v>5</v>
-      </c>
-      <c r="G380" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H380" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A381" s="1">
         <v>20</v>
       </c>
@@ -10465,17 +6991,8 @@
       <c r="E381" s="16">
         <v>0.20519999999999999</v>
       </c>
-      <c r="F381" s="15">
-        <v>6</v>
-      </c>
-      <c r="G381" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H381" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A382" s="1">
         <v>21</v>
       </c>
@@ -10491,17 +7008,8 @@
       <c r="E382" s="16">
         <v>0.26400000000000001</v>
       </c>
-      <c r="F382" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G382" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H382" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A383" s="1">
         <v>22</v>
       </c>
@@ -10517,17 +7025,8 @@
       <c r="E383" s="16">
         <v>0.2452</v>
       </c>
-      <c r="F383" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="G383" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H383" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A384" s="1">
         <v>23</v>
       </c>
@@ -10543,17 +7042,8 @@
       <c r="E384" s="16">
         <v>0.25519999999999998</v>
       </c>
-      <c r="F384" s="15">
-        <v>2</v>
-      </c>
-      <c r="G384" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H384" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A385" s="1">
         <v>24</v>
       </c>
@@ -10569,17 +7059,8 @@
       <c r="E385" s="16">
         <v>0.2223</v>
       </c>
-      <c r="F385" s="15">
-        <v>1</v>
-      </c>
-      <c r="G385" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H385" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A386" s="1">
         <v>25</v>
       </c>
@@ -10595,17 +7076,8 @@
       <c r="E386" s="16">
         <v>0.25790000000000002</v>
       </c>
-      <c r="F386" s="15">
-        <v>6</v>
-      </c>
-      <c r="G386" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H386" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A387" s="1">
         <v>26</v>
       </c>
@@ -10621,17 +7093,8 @@
       <c r="E387" s="16">
         <v>0.30230000000000001</v>
       </c>
-      <c r="F387" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G387" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H387" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A388" s="1">
         <v>27</v>
       </c>
@@ -10647,17 +7110,8 @@
       <c r="E388" s="16">
         <v>0.2321</v>
       </c>
-      <c r="F388" s="15">
-        <v>2</v>
-      </c>
-      <c r="G388" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H388" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A389" s="1">
         <v>28</v>
       </c>
@@ -10673,17 +7127,8 @@
       <c r="E389" s="16">
         <v>0.18729999999999999</v>
       </c>
-      <c r="F389" s="15">
-        <v>1</v>
-      </c>
-      <c r="G389" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H389" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A390" s="1">
         <v>29</v>
       </c>
@@ -10699,17 +7144,8 @@
       <c r="E390" s="16">
         <v>0.2056</v>
       </c>
-      <c r="F390" s="15">
-        <v>1</v>
-      </c>
-      <c r="G390" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H390" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A391" s="1">
         <v>30</v>
       </c>
@@ -10725,17 +7161,8 @@
       <c r="E391" s="16">
         <v>0.30659999999999998</v>
       </c>
-      <c r="F391" s="15">
-        <v>2</v>
-      </c>
-      <c r="G391" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H391" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A392" s="1">
         <v>31</v>
       </c>
@@ -10751,17 +7178,8 @@
       <c r="E392" s="16">
         <v>0.25230000000000002</v>
       </c>
-      <c r="F392" s="15">
-        <v>6</v>
-      </c>
-      <c r="G392" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H392" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A393" s="1">
         <v>32</v>
       </c>
@@ -10777,17 +7195,8 @@
       <c r="E393" s="16">
         <v>0.52569999999999995</v>
       </c>
-      <c r="F393" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="G393" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H393" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A394" s="1">
         <v>33</v>
       </c>
@@ -10803,17 +7212,8 @@
       <c r="E394" s="16">
         <v>0.1875</v>
       </c>
-      <c r="F394" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G394" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H394" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A395" s="1">
         <v>34</v>
       </c>
@@ -10829,17 +7229,8 @@
       <c r="E395" s="16">
         <v>0.22309999999999999</v>
       </c>
-      <c r="F395" s="15">
-        <v>5</v>
-      </c>
-      <c r="G395" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H395" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A396" s="1">
         <v>35</v>
       </c>
@@ -10855,17 +7246,8 @@
       <c r="E396" s="16">
         <v>0.2717</v>
       </c>
-      <c r="F396" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="G396" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H396" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A397" s="1">
         <v>36</v>
       </c>
@@ -10881,17 +7263,8 @@
       <c r="E397" s="16">
         <v>0.25459999999999999</v>
       </c>
-      <c r="F397" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="G397" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H397" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A398" s="15">
         <v>1</v>
       </c>
@@ -10907,17 +7280,8 @@
       <c r="E398" s="3">
         <v>0.13893967093235834</v>
       </c>
-      <c r="F398" s="15">
-        <v>2</v>
-      </c>
-      <c r="G398" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H398" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A399" s="15">
         <v>2</v>
       </c>
@@ -10933,17 +7297,8 @@
       <c r="E399" s="3">
         <v>0.12083847102342782</v>
       </c>
-      <c r="F399" s="15">
-        <v>6</v>
-      </c>
-      <c r="G399" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H399" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A400" s="15">
         <v>3</v>
       </c>
@@ -10959,17 +7314,8 @@
       <c r="E400" s="3">
         <v>0.14367816091954</v>
       </c>
-      <c r="F400" s="15">
-        <v>1</v>
-      </c>
-      <c r="G400" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H400" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A401" s="15">
         <v>4</v>
       </c>
@@ -10985,17 +7331,8 @@
       <c r="E401" s="3">
         <v>0.14826498422712928</v>
       </c>
-      <c r="F401" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G401" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H401" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A402" s="15">
         <v>5</v>
       </c>
@@ -11011,17 +7348,8 @@
       <c r="E402" s="3">
         <v>0.16249999999999989</v>
       </c>
-      <c r="F402" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G402" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H402" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A403" s="15">
         <v>6</v>
       </c>
@@ -11037,17 +7365,8 @@
       <c r="E403" s="3">
         <v>0.13718820861677997</v>
       </c>
-      <c r="F403" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="G403" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H403" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A404" s="15">
         <v>7</v>
       </c>
@@ -11063,17 +7382,8 @@
       <c r="E404" s="3">
         <v>0.12393162393162387</v>
       </c>
-      <c r="F404" s="15">
-        <v>2</v>
-      </c>
-      <c r="G404" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H404" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A405" s="15">
         <v>8</v>
       </c>
@@ -11089,17 +7399,8 @@
       <c r="E405" s="3">
         <v>0.16865869853917667</v>
       </c>
-      <c r="F405" s="15">
-        <v>5</v>
-      </c>
-      <c r="G405" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H405" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A406" s="15">
         <v>9</v>
       </c>
@@ -11115,17 +7416,8 @@
       <c r="E406" s="3">
         <v>0.1613636363636364</v>
       </c>
-      <c r="F406" s="15">
-        <v>5</v>
-      </c>
-      <c r="G406" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H406" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A407" s="15">
         <v>10</v>
       </c>
@@ -11141,17 +7433,8 @@
       <c r="E407" s="3">
         <v>0.13799621928166361</v>
       </c>
-      <c r="F407" s="15">
-        <v>1</v>
-      </c>
-      <c r="G407" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H407" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A408" s="15">
         <v>11</v>
       </c>
@@ -11167,17 +7450,8 @@
       <c r="E408" s="3">
         <v>0.13802083333333345</v>
       </c>
-      <c r="F408" s="15">
-        <v>2</v>
-      </c>
-      <c r="G408" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H408" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A409" s="15">
         <v>12</v>
       </c>
@@ -11193,17 +7467,8 @@
       <c r="E409" s="3">
         <v>0.27319587628865988</v>
       </c>
-      <c r="F409" s="15">
-        <v>5</v>
-      </c>
-      <c r="G409" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H409" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A410" s="15">
         <v>13</v>
       </c>
@@ -11219,17 +7484,8 @@
       <c r="E410" s="3">
         <v>0.25138632162661739</v>
       </c>
-      <c r="F410" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="G410" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H410" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A411" s="15">
         <v>14</v>
       </c>
@@ -11245,17 +7501,8 @@
       <c r="E411" s="3">
         <v>0.15453194650817245</v>
       </c>
-      <c r="F411" s="15">
-        <v>6</v>
-      </c>
-      <c r="G411" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H411" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A412" s="15">
         <v>15</v>
       </c>
@@ -11271,17 +7518,8 @@
       <c r="E412" s="3">
         <v>0.13278688524590154</v>
       </c>
-      <c r="F412" s="15">
-        <v>1</v>
-      </c>
-      <c r="G412" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H412" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A413" s="15">
         <v>16</v>
       </c>
@@ -11297,17 +7535,8 @@
       <c r="E413" s="3">
         <v>0.17849462365591393</v>
       </c>
-      <c r="F413" s="15">
-        <v>6</v>
-      </c>
-      <c r="G413" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H413" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A414" s="15">
         <v>17</v>
       </c>
@@ -11323,17 +7552,8 @@
       <c r="E414" s="3">
         <v>0.15503875968992248</v>
       </c>
-      <c r="F414" s="15">
-        <v>5</v>
-      </c>
-      <c r="G414" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H414" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A415" s="15">
         <v>18</v>
       </c>
@@ -11349,17 +7569,8 @@
       <c r="E415" s="3">
         <v>0.15940224159402239</v>
       </c>
-      <c r="F415" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G415" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H415" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A416" s="15">
         <v>19</v>
       </c>
@@ -11375,17 +7586,8 @@
       <c r="E416" s="3">
         <v>0.16043956043956037</v>
       </c>
-      <c r="F416" s="15">
-        <v>5</v>
-      </c>
-      <c r="G416" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H416" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A417" s="15">
         <v>20</v>
       </c>
@@ -11401,17 +7603,8 @@
       <c r="E417" s="3">
         <v>0.17018072289156622</v>
       </c>
-      <c r="F417" s="15">
-        <v>6</v>
-      </c>
-      <c r="G417" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H417" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A418" s="15">
         <v>21</v>
       </c>
@@ -11427,17 +7620,8 @@
       <c r="E418" s="3">
         <v>0.13797814207650264</v>
       </c>
-      <c r="F418" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G418" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H418" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A419" s="15">
         <v>22</v>
       </c>
@@ -11453,17 +7637,8 @@
       <c r="E419" s="3">
         <v>0.14035087719298253</v>
       </c>
-      <c r="F419" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="G419" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H419" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A420" s="15">
         <v>23</v>
       </c>
@@ -11479,17 +7654,8 @@
       <c r="E420" s="3">
         <v>0.19097222222222224</v>
       </c>
-      <c r="F420" s="15">
-        <v>2</v>
-      </c>
-      <c r="G420" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H420" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A421" s="15">
         <v>24</v>
       </c>
@@ -11505,17 +7671,8 @@
       <c r="E421" s="3">
         <v>0.16004672897196248</v>
       </c>
-      <c r="F421" s="15">
-        <v>1</v>
-      </c>
-      <c r="G421" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H421" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A422" s="15">
         <v>25</v>
       </c>
@@ -11531,17 +7688,8 @@
       <c r="E422" s="3">
         <v>0.16607773851590119</v>
       </c>
-      <c r="F422" s="15">
-        <v>6</v>
-      </c>
-      <c r="G422" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H422" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A423" s="15">
         <v>26</v>
       </c>
@@ -11557,17 +7705,8 @@
       <c r="E423" s="3">
         <v>0.18663594470046088</v>
       </c>
-      <c r="F423" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G423" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H423" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A424" s="15">
         <v>27</v>
       </c>
@@ -11583,17 +7722,8 @@
       <c r="E424" s="3">
         <v>0.16436464088397801</v>
       </c>
-      <c r="F424" s="15">
-        <v>2</v>
-      </c>
-      <c r="G424" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H424" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A425" s="15">
         <v>28</v>
       </c>
@@ -11609,17 +7739,8 @@
       <c r="E425" s="3">
         <v>0.1651234567901235</v>
       </c>
-      <c r="F425" s="15">
-        <v>1</v>
-      </c>
-      <c r="G425" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H425" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A426" s="15">
         <v>29</v>
       </c>
@@ -11635,17 +7756,8 @@
       <c r="E426" s="3">
         <v>0.14893617021276587</v>
       </c>
-      <c r="F426" s="15">
-        <v>1</v>
-      </c>
-      <c r="G426" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H426" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A427" s="15">
         <v>30</v>
       </c>
@@ -11661,17 +7773,8 @@
       <c r="E427" s="3">
         <v>0.16597510373443983</v>
       </c>
-      <c r="F427" s="15">
-        <v>2</v>
-      </c>
-      <c r="G427" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H427" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A428" s="15">
         <v>31</v>
       </c>
@@ -11687,17 +7790,8 @@
       <c r="E428" s="3">
         <v>0.13607305936073064</v>
       </c>
-      <c r="F428" s="15">
-        <v>6</v>
-      </c>
-      <c r="G428" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H428" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A429" s="15">
         <v>32</v>
       </c>
@@ -11713,17 +7807,8 @@
       <c r="E429" s="3">
         <v>0.1738197424892704</v>
       </c>
-      <c r="F429" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="G429" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H429" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A430" s="15">
         <v>33</v>
       </c>
@@ -11739,17 +7824,8 @@
       <c r="E430" s="3">
         <v>0.16300366300366298</v>
       </c>
-      <c r="F430" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G430" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H430" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A431" s="15">
         <v>34</v>
       </c>
@@ -11765,17 +7841,8 @@
       <c r="E431" s="3">
         <v>0.22493573264781469</v>
       </c>
-      <c r="F431" s="15">
-        <v>5</v>
-      </c>
-      <c r="G431" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H431" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A432" s="15">
         <v>35</v>
       </c>
@@ -11791,17 +7858,8 @@
       <c r="E432" s="3">
         <v>0.16815286624203826</v>
       </c>
-      <c r="F432" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="G432" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H432" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A433" s="15">
         <v>36</v>
       </c>
@@ -11816,15 +7874,6 @@
       </c>
       <c r="E433" s="3">
         <v>0.19956616052060727</v>
-      </c>
-      <c r="F433" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="G433" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H433" s="15" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -11837,14 +7886,15 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
-      <selection activeCell="F367" sqref="F367"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="4" width="9.1328125" style="1"/>
     <col min="5" max="5" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.59765625" style="17" customWidth="1"/>
     <col min="8" max="8" width="9.1328125" style="1"/>
     <col min="9" max="9" width="13.86328125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="9.1328125" style="1"/>
@@ -11866,6 +7916,7 @@
       <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="9">
